--- a/docs/Burndown chart.xlsx
+++ b/docs/Burndown chart.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\attil\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\attil\PycharmProjects\Progetto-SAD\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57DAE834-C016-4CD7-AF81-8868D92A26E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92B0E419-1770-4D22-AB50-8A1458D3DA77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{EB4EC49D-06D4-4331-8995-0B2882866B42}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{EB4EC49D-06D4-4331-8995-0B2882866B42}"/>
   </bookViews>
   <sheets>
     <sheet name="Burndown Chart" sheetId="1" r:id="rId1"/>
@@ -96,9 +96,6 @@
     <t>Santonicola Federico</t>
   </si>
   <si>
-    <t>Non iniziata</t>
-  </si>
-  <si>
     <t>US #2</t>
   </si>
   <si>
@@ -220,6 +217,9 @@
   </si>
   <si>
     <t>US #7</t>
+  </si>
+  <si>
+    <t>Completata</t>
   </si>
 </sst>
 </file>
@@ -296,7 +296,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -337,9 +337,6 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1945,7 +1942,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9E092E5-C70C-4A02-95A3-9D8F5F48E490}">
   <dimension ref="A1:J6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="73" workbookViewId="0">
+    <sheetView zoomScale="73" workbookViewId="0">
       <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
@@ -2078,8 +2075,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F59B876-E793-45F0-95C7-4E253C5C7DF4}">
   <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView zoomScale="39" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="39" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2131,12 +2128,12 @@
         <v>18</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>19</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B4" s="10">
         <v>2</v>
@@ -2147,67 +2144,67 @@
     </row>
     <row r="5" spans="1:5" ht="42" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D5" s="9" t="s">
         <v>18</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>19</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B6" s="3"/>
       <c r="C6" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="D6" s="9" t="s">
-        <v>25</v>
-      </c>
       <c r="E6" s="9" t="s">
-        <v>19</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="30.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B7" s="3"/>
       <c r="C7" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="D7" s="9" t="s">
-        <v>28</v>
-      </c>
       <c r="E7" s="9" t="s">
-        <v>19</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="44" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B8" s="3"/>
       <c r="C8" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="D8" s="9" t="s">
-        <v>31</v>
-      </c>
       <c r="E8" s="9" t="s">
-        <v>19</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B9" s="10">
         <v>3</v>
@@ -2218,22 +2215,22 @@
     </row>
     <row r="10" spans="1:5" ht="58.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B10" s="3"/>
       <c r="C10" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>19</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B11" s="10">
         <v>3</v>
@@ -2244,52 +2241,52 @@
     </row>
     <row r="12" spans="1:5" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B12" s="3"/>
       <c r="C12" s="12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D12" s="9" t="s">
         <v>18</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>19</v>
+        <v>60</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="59" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B13" s="3"/>
       <c r="C13" s="12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>19</v>
+        <v>60</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B14" s="3"/>
       <c r="C14" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>19</v>
+        <v>60</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B15" s="10">
         <v>3</v>
@@ -2300,52 +2297,52 @@
     </row>
     <row r="16" spans="1:5" ht="45.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B16" s="3"/>
       <c r="C16" s="12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D16" s="9" t="s">
         <v>18</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>19</v>
+        <v>60</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="73" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B17" s="3"/>
       <c r="C17" s="12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>19</v>
+        <v>60</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="46.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B18" s="3"/>
       <c r="C18" s="12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>19</v>
+        <v>60</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B19" s="10">
         <v>5</v>
@@ -2356,52 +2353,52 @@
     </row>
     <row r="20" spans="1:5" ht="30.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B20" s="3"/>
       <c r="C20" s="12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D20" s="9" t="s">
         <v>18</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>19</v>
+        <v>60</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="32" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B21" s="3"/>
       <c r="C21" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>19</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="59" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B22" s="3"/>
       <c r="C22" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>19</v>
+        <v>60</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B23" s="10">
         <v>5</v>
@@ -2412,32 +2409,32 @@
     </row>
     <row r="24" spans="1:5" ht="32.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="B24" s="3"/>
+      <c r="C24" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="B24" s="17"/>
-      <c r="C24" s="12" t="s">
-        <v>57</v>
-      </c>
       <c r="D24" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E24" s="9" t="s">
-        <v>19</v>
+        <v>60</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="59.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B25" s="3"/>
       <c r="C25" s="12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E25" s="9" t="s">
-        <v>19</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Burndown chart.xlsx
+++ b/docs/Burndown chart.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\attil\PycharmProjects\Progetto-SAD\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\attil\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92B0E419-1770-4D22-AB50-8A1458D3DA77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F101B03A-8C53-49E6-9B39-8E435A6AAB96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{EB4EC49D-06D4-4331-8995-0B2882866B42}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{EB4EC49D-06D4-4331-8995-0B2882866B42}"/>
   </bookViews>
   <sheets>
     <sheet name="Burndown Chart" sheetId="1" r:id="rId1"/>
@@ -521,7 +521,7 @@
                   <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>28</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -566,13 +566,13 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>20</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>25</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>30</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -661,7 +661,7 @@
                   <c:v>103</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>75</c:v>
+                  <c:v>103</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -729,13 +729,13 @@
                   <c:v>145</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>125</c:v>
+                  <c:v>123</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>100</c:v>
+                  <c:v>123</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>70</c:v>
+                  <c:v>123</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1942,8 +1942,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9E092E5-C70C-4A02-95A3-9D8F5F48E490}">
   <dimension ref="A1:J6"/>
   <sheetViews>
-    <sheetView zoomScale="73" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView tabSelected="1" zoomScale="98" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2005,7 +2005,7 @@
         <v>22</v>
       </c>
       <c r="C3" s="2">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D3" s="2">
         <f xml:space="preserve"> D2 - B3</f>
@@ -2013,7 +2013,7 @@
       </c>
       <c r="E3" s="2">
         <f xml:space="preserve"> E2 - C3</f>
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.35">
@@ -2024,7 +2024,7 @@
         <v>20</v>
       </c>
       <c r="C4" s="2">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="D4" s="2">
         <f t="shared" ref="D4:D5" si="1" xml:space="preserve"> D3 - B4</f>
@@ -2032,7 +2032,7 @@
       </c>
       <c r="E4" s="2">
         <f t="shared" ref="E4:E5" si="2" xml:space="preserve"> E3 - C4</f>
-        <v>100</v>
+        <v>123</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.35">
@@ -2040,18 +2040,18 @@
         <v>3</v>
       </c>
       <c r="B5" s="2">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="C5" s="2">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="D5" s="2">
         <f t="shared" si="1"/>
-        <v>75</v>
+        <v>103</v>
       </c>
       <c r="E5" s="2">
         <f t="shared" si="2"/>
-        <v>70</v>
+        <v>123</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.35">
@@ -2075,7 +2075,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F59B876-E793-45F0-95C7-4E253C5C7DF4}">
   <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="39" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A12" zoomScale="39" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>

--- a/docs/Burndown chart.xlsx
+++ b/docs/Burndown chart.xlsx
@@ -2,21 +2,22 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\attil\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F101B03A-8C53-49E6-9B39-8E435A6AAB96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03F5027A-1D1C-4064-BAAA-ADCDD44F3620}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{EB4EC49D-06D4-4331-8995-0B2882866B42}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{EB4EC49D-06D4-4331-8995-0B2882866B42}"/>
   </bookViews>
   <sheets>
     <sheet name="Burndown Chart" sheetId="1" r:id="rId1"/>
     <sheet name="Task Sprint 1" sheetId="2" r:id="rId2"/>
+    <sheet name="Task Sprint 2" sheetId="4" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,11 +38,29 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="101">
   <si>
     <t>Sprint</t>
   </si>
   <si>
+    <t xml:space="preserve">N. Story Points pianificati </t>
+  </si>
+  <si>
+    <t>N. Story Points Effetivi</t>
+  </si>
+  <si>
+    <t>Burndown ideale</t>
+  </si>
+  <si>
+    <t>Burndown effettivo</t>
+  </si>
+  <si>
+    <t>Sprint 0</t>
+  </si>
+  <si>
+    <t>Story Points totali:</t>
+  </si>
+  <si>
     <t>Sprint 1</t>
   </si>
   <si>
@@ -51,24 +70,6 @@
     <t>Sprint 3</t>
   </si>
   <si>
-    <t>Sprint 0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">N. Story Points pianificati </t>
-  </si>
-  <si>
-    <t>N. Story Points Effetivi</t>
-  </si>
-  <si>
-    <t>Burndown ideale</t>
-  </si>
-  <si>
-    <t>Burndown effettivo</t>
-  </si>
-  <si>
-    <t>Story Points totali:</t>
-  </si>
-  <si>
     <t>Task</t>
   </si>
   <si>
@@ -96,6 +97,9 @@
     <t>Santonicola Federico</t>
   </si>
   <si>
+    <t>Completata</t>
+  </si>
+  <si>
     <t>US #2</t>
   </si>
   <si>
@@ -204,6 +208,9 @@
     <t>Inserire l’opzione ‘Salva’ all’interno del menu ‘File’ che, all’evento di clic con il tasto sinistro del mouse, permetta di salvare lo spazio di lavoro corrente in un file, il cui percorso è indicato dall’utente</t>
   </si>
   <si>
+    <t>US #7</t>
+  </si>
+  <si>
     <t>TSK16: Caricamento gestore file</t>
   </si>
   <si>
@@ -216,10 +223,127 @@
     <t>Inserire l’opzione ‘Carica’ all’interno del menu ‘File’ che, all’evento di clic con il tasto sinistro del mouse, permetta di caricare lo spazio di lavoro da un file, il cui percorso è indicato dall’utente</t>
   </si>
   <si>
-    <t>US #7</t>
-  </si>
-  <si>
-    <t>Completata</t>
+    <t>US #8</t>
+  </si>
+  <si>
+    <t>TSK18: Gestione operazione selezione</t>
+  </si>
+  <si>
+    <t>US #9</t>
+  </si>
+  <si>
+    <t>TSK19: Menu contestuale e voce "Elimina"</t>
+  </si>
+  <si>
+    <t>Associare la comparsa del menu contestuale alla pressione del tasto destro del mouse al di sopra di una forma nello spazio di lavoro</t>
+  </si>
+  <si>
+    <t>US #10</t>
+  </si>
+  <si>
+    <t>TSK21: Gestione spostamento forme</t>
+  </si>
+  <si>
+    <t>Associare l’evento di trascinamento alle forme dello spazio di lavoro, in modo da consentire lo spostamento dinamico visivo delle forme</t>
+  </si>
+  <si>
+    <t>US #11</t>
+  </si>
+  <si>
+    <t>TSK22: Implementazione modifica colore bordi</t>
+  </si>
+  <si>
+    <t>US #12</t>
+  </si>
+  <si>
+    <t>TSK23: Implementazione modifica colore riempimento</t>
+  </si>
+  <si>
+    <t>Implementare il cambiamento del colore del riempimento della forma selezionata quando avviene l’evento di scelta di un colore dal color picker del riempimento. L’evento deve interessare solo le forme 2D</t>
+  </si>
+  <si>
+    <t>US #13</t>
+  </si>
+  <si>
+    <t>TSK24: Voce "Ridimensiona" menu contestuale</t>
+  </si>
+  <si>
+    <t>Aggiungere al menu la voce "Ridimensiona", che, quando selezionata, apre una finestra di dialogo per l'inserimento delle nuove dimensioni della forma. Le dimensioni verranno applicate alla forma al momento della conferma</t>
+  </si>
+  <si>
+    <t>TSK20: Comparsa menu contestuale</t>
+  </si>
+  <si>
+    <t>Creare in fase di inizializzazione dell’applicazione un menu contestuale.
+Aggiungere al menu la voce "Elimina", che, quando selezionata, rimuove dallo spazio di lavoro la forma su cui è stato aperto il menu</t>
+  </si>
+  <si>
+    <t>Implementare il cambiamento del colore dei bordi della forma selezionata quando avviene l’evento di scelta di un colore dal color picker dei bordi</t>
+  </si>
+  <si>
+    <t>Implementare la logica per il selezionamento e il deselezionamento di una forma geometrica nello spazio di lavoro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Masturzo Vincenzo Pietro Pio </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Santonicola Federico</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Santonicola Federico </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Treglia Martina Rosaria </t>
+  </si>
+  <si>
+    <t>US #14</t>
+  </si>
+  <si>
+    <t>TSK27: Voce "Copia" menu contestuale forme</t>
+  </si>
+  <si>
+    <t>Aggiungere al menu contestuale la voce "Copia", che, quando selezionata permetta di clonare la forma su cui è stato aperto il menu, in modo da poterla riutilizzare successivamente</t>
+  </si>
+  <si>
+    <t>US #15</t>
+  </si>
+  <si>
+    <t>Aggiungere al menu contestuale la voce "Taglia", che, quando selezionata permetta di clonare e rimuovere dallo spazio di lavoro la forma su cui è stato aperto il menu, in modo da poterla riutilizzare successivamente</t>
+  </si>
+  <si>
+    <t>TSK28: Voce "Taglia" menu contestuale forme</t>
+  </si>
+  <si>
+    <t>Non Iniziata</t>
+  </si>
+  <si>
+    <t>US #16</t>
+  </si>
+  <si>
+    <t>Creare in fase di inizializzazione dell’applicazione un menu contestuale specifico per lo spazio di lavoro, che appaia quando si effettua il clic destro del mouse in un suo punto vuoto.
+Aggiungere a questo menu la voce "Incolla", che, quando selezionata, incolli la forma precedentemente copiata, con il suo centro nel punto su cui è stato aperto il menu</t>
+  </si>
+  <si>
+    <t>TSK29: Voce "Incolla" menu contestuale spazio di lavoro</t>
+  </si>
+  <si>
+    <t>Sessa Attilio Marco</t>
+  </si>
+  <si>
+    <t>TSK26: Clonazione forme</t>
+  </si>
+  <si>
+    <t>Aggiungere il metodo “clone” all’interfaccia ShapeInterface ed effettuarne la sua implementazione nelle forme concrete.
+Il metodo deve restituire una nuova forma che presenti le stesse proprietà della forma su cui è stato invocato il metodo</t>
+  </si>
+  <si>
+    <t>TSK25: Fix scelta forma</t>
+  </si>
+  <si>
+    <t>Modificare le forme selezionabili dalla barra degli strumenti trasformandole in pulsanti, in modo da semplificare il clic da parte dell’utente</t>
+  </si>
+  <si>
+    <t>Refactoring UI</t>
   </si>
 </sst>
 </file>
@@ -264,7 +388,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -283,6 +407,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -296,7 +426,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -338,11 +468,47 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="8">
+  <dxfs count="9">
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -569,7 +735,7 @@
                   <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
@@ -732,10 +898,10 @@
                   <c:v>123</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>123</c:v>
+                  <c:v>94</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>123</c:v>
+                  <c:v>94</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1594,16 +1760,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{C04064D0-0483-4F2B-8D80-6D3C94DE3902}" name="Tabella1" displayName="Tabella1" ref="A1:E5" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{C04064D0-0483-4F2B-8D80-6D3C94DE3902}" name="Tabella1" displayName="Tabella1" ref="A1:E5" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
   <autoFilter ref="A1:E5" xr:uid="{C04064D0-0483-4F2B-8D80-6D3C94DE3902}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{061EAA47-99FF-4793-95C8-BBDBFAB68B33}" name="Sprint" dataDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{0427415D-9094-454F-801E-7C8370F5057B}" name="N. Story Points pianificati " dataDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{9FF0FE81-35D7-440E-ACF3-28F0967414F5}" name="N. Story Points Effetivi" dataDxfId="3"/>
-    <tableColumn id="4" xr3:uid="{4E440841-1C21-4305-8736-56D183C48267}" name="Burndown ideale" dataDxfId="2">
+    <tableColumn id="1" xr3:uid="{061EAA47-99FF-4793-95C8-BBDBFAB68B33}" name="Sprint" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{0427415D-9094-454F-801E-7C8370F5057B}" name="N. Story Points pianificati " dataDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{9FF0FE81-35D7-440E-ACF3-28F0967414F5}" name="N. Story Points Effetivi" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{4E440841-1C21-4305-8736-56D183C48267}" name="Burndown ideale" dataDxfId="3">
       <calculatedColumnFormula xml:space="preserve"> J2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{918E4C8B-3525-4513-B51F-F3AF25E2A893}" name="Burndown effettivo" dataDxfId="1"/>
+    <tableColumn id="5" xr3:uid="{918E4C8B-3525-4513-B51F-F3AF25E2A893}" name="Burndown effettivo" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1614,10 +1780,24 @@
   <autoFilter ref="A1:E25" xr:uid="{E07966A9-29FE-45C1-9972-C1153BCDC387}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{A4C26D35-B636-48F1-8216-6AF7824FB392}" name="Task"/>
-    <tableColumn id="2" xr3:uid="{400E9A22-2A31-428D-B3DC-6AED50B749EC}" name="Story points" dataDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{400E9A22-2A31-428D-B3DC-6AED50B749EC}" name="Story points" dataDxfId="1"/>
     <tableColumn id="3" xr3:uid="{F515B9E0-CA05-4C03-9D7F-1048D7D06F35}" name="Descrizione task"/>
     <tableColumn id="4" xr3:uid="{BE256754-E981-4918-8949-6BCAC8EE6193}" name="Membro responsabile"/>
     <tableColumn id="5" xr3:uid="{5CD69F92-0583-4260-B7B8-44E950556925}" name="Stato"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E265249C-BAFF-4077-BB6B-13CFB543F61C}" name="TaskSprint12" displayName="TaskSprint12" ref="A1:E23" totalsRowShown="0">
+  <autoFilter ref="A1:E23" xr:uid="{E07966A9-29FE-45C1-9972-C1153BCDC387}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{D57302FE-9F4A-4540-818F-8DD4A3E4E2E7}" name="Task"/>
+    <tableColumn id="2" xr3:uid="{555A8DDC-F214-4A7C-A61F-F434A1810BE9}" name="Story points" dataDxfId="0"/>
+    <tableColumn id="3" xr3:uid="{A0B8F493-93D8-4196-A1AE-68C597412E5B}" name="Descrizione task"/>
+    <tableColumn id="4" xr3:uid="{DFEB7848-77FB-4564-BAF4-A7EA69517584}" name="Membro responsabile"/>
+    <tableColumn id="5" xr3:uid="{B0B02EFD-25AC-4CFD-8FA8-A2BABA4F0610}" name="Stato"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1942,38 +2122,38 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9E092E5-C70C-4A02-95A3-9D8F5F48E490}">
   <dimension ref="A1:J6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="98" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView zoomScale="98" workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="24.36328125" customWidth="1"/>
+    <col min="2" max="2" width="24.1796875" customWidth="1"/>
     <col min="3" max="3" width="21.1796875" customWidth="1"/>
-    <col min="4" max="4" width="17.08984375" customWidth="1"/>
+    <col min="4" max="4" width="17.1796875" customWidth="1"/>
     <col min="5" max="5" width="18.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" s="16" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B2" s="2">
         <v>0</v>
@@ -1990,7 +2170,7 @@
         <v>145</v>
       </c>
       <c r="H2" s="15" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="I2" s="14"/>
       <c r="J2" s="14">
@@ -1999,7 +2179,7 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" s="16" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B3" s="2">
         <v>22</v>
@@ -2018,13 +2198,13 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" s="16" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B4" s="2">
         <v>20</v>
       </c>
       <c r="C4" s="2">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="D4" s="2">
         <f t="shared" ref="D4:D5" si="1" xml:space="preserve"> D3 - B4</f>
@@ -2032,12 +2212,12 @@
       </c>
       <c r="E4" s="2">
         <f t="shared" ref="E4:E5" si="2" xml:space="preserve"> E3 - C4</f>
-        <v>123</v>
+        <v>94</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" s="16" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B5" s="2">
         <v>0</v>
@@ -2051,7 +2231,7 @@
       </c>
       <c r="E5" s="2">
         <f t="shared" si="2"/>
-        <v>123</v>
+        <v>94</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.35">
@@ -2075,17 +2255,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F59B876-E793-45F0-95C7-4E253C5C7DF4}">
   <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" zoomScale="39" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+    <sheetView topLeftCell="A14" zoomScale="68" zoomScaleNormal="68" zoomScaleSheetLayoutView="37" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="34.453125" customWidth="1"/>
     <col min="2" max="2" width="16" customWidth="1"/>
-    <col min="3" max="3" width="43.36328125" customWidth="1"/>
+    <col min="3" max="3" width="43.1796875" customWidth="1"/>
     <col min="4" max="4" width="25.81640625" customWidth="1"/>
-    <col min="5" max="5" width="41.08984375" customWidth="1"/>
+    <col min="5" max="5" width="41.1796875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
@@ -2128,12 +2308,12 @@
         <v>18</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>60</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B4" s="10">
         <v>2</v>
@@ -2144,67 +2324,67 @@
     </row>
     <row r="5" spans="1:5" ht="42" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D5" s="9" t="s">
         <v>18</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>60</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B6" s="3"/>
       <c r="C6" s="12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>60</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="30.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B7" s="3"/>
       <c r="C7" s="12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>60</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="44" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="13" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B8" s="3"/>
       <c r="C8" s="12" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>60</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B9" s="10">
         <v>3</v>
@@ -2215,22 +2395,22 @@
     </row>
     <row r="10" spans="1:5" ht="58.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="11" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B10" s="3"/>
       <c r="C10" s="12" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>60</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B11" s="10">
         <v>3</v>
@@ -2241,52 +2421,52 @@
     </row>
     <row r="12" spans="1:5" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="11" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B12" s="3"/>
       <c r="C12" s="12" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D12" s="9" t="s">
         <v>18</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>60</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="59" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="11" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B13" s="3"/>
       <c r="C13" s="12" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>60</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="11" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B14" s="3"/>
       <c r="C14" s="12" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>60</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" s="4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B15" s="10">
         <v>3</v>
@@ -2297,52 +2477,52 @@
     </row>
     <row r="16" spans="1:5" ht="45.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="13" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B16" s="3"/>
       <c r="C16" s="12" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D16" s="9" t="s">
         <v>18</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="73" customHeight="1" x14ac:dyDescent="0.35">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="73.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B17" s="3"/>
       <c r="C17" s="12" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>60</v>
+        <v>19</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="46.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B18" s="3"/>
       <c r="C18" s="12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>60</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" s="4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B19" s="10">
         <v>5</v>
@@ -2353,52 +2533,52 @@
     </row>
     <row r="20" spans="1:5" ht="30.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="13" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B20" s="3"/>
       <c r="C20" s="12" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D20" s="9" t="s">
         <v>18</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>60</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="32" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="13" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B21" s="3"/>
       <c r="C21" s="12" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>60</v>
+        <v>19</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="59" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="13" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B22" s="3"/>
       <c r="C22" s="12" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>60</v>
+        <v>19</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" s="4" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B23" s="10">
         <v>5</v>
@@ -2407,40 +2587,585 @@
       <c r="D23" s="4"/>
       <c r="E23" s="4"/>
     </row>
-    <row r="24" spans="1:5" ht="32.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5" ht="32.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="13" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B24" s="3"/>
       <c r="C24" s="12" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E24" s="9" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="59.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="59.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="13" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B25" s="3"/>
       <c r="C25" s="12" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E25" s="9" t="s">
-        <v>60</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{707AD77F-AD1F-4B96-8DA9-A040FF438B35}">
+  <dimension ref="A1:E28"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="55" zoomScaleNormal="55" zoomScaleSheetLayoutView="37" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="50.453125" customWidth="1"/>
+    <col min="2" max="2" width="16" customWidth="1"/>
+    <col min="3" max="3" width="77.54296875" customWidth="1"/>
+    <col min="4" max="4" width="33.1796875" customWidth="1"/>
+    <col min="5" max="5" width="37.453125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B2" s="5">
+        <v>3</v>
+      </c>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+    </row>
+    <row r="3" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B4" s="10">
+        <v>3</v>
+      </c>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+    </row>
+    <row r="5" spans="1:5" ht="48.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="B5" s="3"/>
+      <c r="C5" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="B6" s="3"/>
+      <c r="C6" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B7" s="10">
+        <v>3</v>
+      </c>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+    </row>
+    <row r="8" spans="1:5" ht="29.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="B8" s="3"/>
+      <c r="C8" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B9" s="10">
+        <v>3</v>
+      </c>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+    </row>
+    <row r="10" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="B10" s="3"/>
+      <c r="C10" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A11" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B11" s="10">
+        <v>3</v>
+      </c>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+    </row>
+    <row r="12" spans="1:5" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="B12" s="3"/>
+      <c r="C12" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B13" s="10">
+        <v>5</v>
+      </c>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+    </row>
+    <row r="14" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A14" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="B14" s="3"/>
+      <c r="C14" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A15" s="26" t="s">
+        <v>100</v>
+      </c>
+      <c r="B15" s="22"/>
+      <c r="C15" s="23"/>
+      <c r="D15" s="24"/>
+      <c r="E15" s="24"/>
+    </row>
+    <row r="16" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A16" s="20" t="s">
+        <v>98</v>
+      </c>
+      <c r="B16" s="25"/>
+      <c r="C16" s="18" t="s">
+        <v>99</v>
+      </c>
+      <c r="D16" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="E16" s="19" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A17" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B17" s="10">
+        <v>3</v>
+      </c>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+    </row>
+    <row r="18" spans="1:5" ht="58" x14ac:dyDescent="0.35">
+      <c r="A18" s="20" t="s">
+        <v>96</v>
+      </c>
+      <c r="B18" s="17"/>
+      <c r="C18" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="D18" s="27" t="s">
+        <v>84</v>
+      </c>
+      <c r="E18" s="19" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="31" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="B19" s="3"/>
+      <c r="C19" s="21" t="s">
+        <v>87</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="B20" s="10">
+        <v>3</v>
+      </c>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+    </row>
+    <row r="21" spans="1:5" ht="46.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="B21" s="3"/>
+      <c r="C21" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="E21" s="9" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A22" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="B22" s="10">
+        <v>3</v>
+      </c>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+    </row>
+    <row r="23" spans="1:5" ht="70" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="B23" s="3"/>
+      <c r="C23" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="E23" s="9" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="32" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="25" spans="1:5" ht="59" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="27" spans="1:5" ht="32.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="28" spans="1:5" ht="59.75" customHeight="1" x14ac:dyDescent="0.35"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="cad3c75a-58d7-40e3-abd0-865ba3ea7957" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101006D06A881EF84BF4D9C2E0A241D74C9AB" ma:contentTypeVersion="5" ma:contentTypeDescription="Creare un nuovo documento." ma:contentTypeScope="" ma:versionID="6ad53b5fb9ed4d9ca0953b41cd1c771f">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="cad3c75a-58d7-40e3-abd0-865ba3ea7957" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="cacddd16a8291ce2bddd10790055ff38" ns3:_="">
+    <xsd:import namespace="cad3c75a-58d7-40e3-abd0-865ba3ea7957"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns3:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceSearchProperties" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceObjectDetectorVersions" minOccurs="0"/>
+                <xsd:element ref="ns3:_activity" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="cad3c75a-58d7-40e3-abd0-865ba3ea7957" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceSearchProperties" ma:index="10" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="11" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="_activity" ma:index="12" nillable="true" ma:displayName="_activity" ma:hidden="true" ma:internalName="_activity">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Tipo di contenuto"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Titolo"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{717C791E-FCB3-40AD-88FF-A49361D61F2C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="cad3c75a-58d7-40e3-abd0-865ba3ea7957"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CC5A00A-4000-42AF-9964-66AE6D943A28}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A080C301-2896-455C-B03E-90A728C8991F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="cad3c75a-58d7-40e3-abd0-865ba3ea7957"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/docs/Burndown chart.xlsx
+++ b/docs/Burndown chart.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\attil\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martina\IdeaProjects\Progetto-SAD\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03F5027A-1D1C-4064-BAAA-ADCDD44F3620}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5432DF9C-F6E0-408B-B90A-5A7DE5D90E6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{EB4EC49D-06D4-4331-8995-0B2882866B42}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="2" xr2:uid="{EB4EC49D-06D4-4331-8995-0B2882866B42}"/>
   </bookViews>
   <sheets>
     <sheet name="Burndown Chart" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="100">
   <si>
     <t>Sprint</t>
   </si>
@@ -312,9 +312,6 @@
   </si>
   <si>
     <t>TSK28: Voce "Taglia" menu contestuale forme</t>
-  </si>
-  <si>
-    <t>Non Iniziata</t>
   </si>
   <si>
     <t>US #16</t>
@@ -426,7 +423,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -497,9 +494,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2126,15 +2120,15 @@
       <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="24.1796875" customWidth="1"/>
-    <col min="3" max="3" width="21.1796875" customWidth="1"/>
-    <col min="4" max="4" width="17.1796875" customWidth="1"/>
-    <col min="5" max="5" width="18.81640625" customWidth="1"/>
+    <col min="2" max="2" width="24.21875" customWidth="1"/>
+    <col min="3" max="3" width="21.21875" customWidth="1"/>
+    <col min="4" max="4" width="17.21875" customWidth="1"/>
+    <col min="5" max="5" width="18.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2151,7 +2145,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="16" t="s">
         <v>5</v>
       </c>
@@ -2177,7 +2171,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="16" t="s">
         <v>7</v>
       </c>
@@ -2196,7 +2190,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="16" t="s">
         <v>8</v>
       </c>
@@ -2215,7 +2209,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="16" t="s">
         <v>9</v>
       </c>
@@ -2234,7 +2228,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -2259,16 +2253,16 @@
       <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="34.453125" customWidth="1"/>
+    <col min="1" max="1" width="34.44140625" customWidth="1"/>
     <col min="2" max="2" width="16" customWidth="1"/>
-    <col min="3" max="3" width="43.1796875" customWidth="1"/>
-    <col min="4" max="4" width="25.81640625" customWidth="1"/>
-    <col min="5" max="5" width="41.1796875" customWidth="1"/>
+    <col min="3" max="3" width="43.21875" customWidth="1"/>
+    <col min="4" max="4" width="25.77734375" customWidth="1"/>
+    <col min="5" max="5" width="41.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>10</v>
       </c>
@@ -2285,7 +2279,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>15</v>
       </c>
@@ -2296,7 +2290,7 @@
       <c r="D2" s="6"/>
       <c r="E2" s="6"/>
     </row>
-    <row r="3" spans="1:5" ht="77" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" ht="76.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>16</v>
       </c>
@@ -2311,7 +2305,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>20</v>
       </c>
@@ -2322,7 +2316,7 @@
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
     </row>
-    <row r="5" spans="1:5" ht="42" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="11" t="s">
         <v>21</v>
       </c>
@@ -2337,7 +2331,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="11" t="s">
         <v>23</v>
       </c>
@@ -2352,7 +2346,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="30.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" ht="30.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="11" t="s">
         <v>26</v>
       </c>
@@ -2367,7 +2361,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="44" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" ht="43.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="13" t="s">
         <v>29</v>
       </c>
@@ -2382,7 +2376,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>32</v>
       </c>
@@ -2393,7 +2387,7 @@
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
     </row>
-    <row r="10" spans="1:5" ht="58.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" ht="58.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="11" t="s">
         <v>33</v>
       </c>
@@ -2408,7 +2402,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>35</v>
       </c>
@@ -2419,7 +2413,7 @@
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
     </row>
-    <row r="12" spans="1:5" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="11" t="s">
         <v>36</v>
       </c>
@@ -2434,7 +2428,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="59" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" ht="58.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="11" t="s">
         <v>38</v>
       </c>
@@ -2449,7 +2443,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="11" t="s">
         <v>40</v>
       </c>
@@ -2464,7 +2458,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
         <v>42</v>
       </c>
@@ -2475,7 +2469,7 @@
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
     </row>
-    <row r="16" spans="1:5" ht="45.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" ht="45.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="13" t="s">
         <v>43</v>
       </c>
@@ -2490,7 +2484,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="73.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" ht="73.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="13" t="s">
         <v>45</v>
       </c>
@@ -2505,7 +2499,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="46.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="13" t="s">
         <v>47</v>
       </c>
@@ -2520,7 +2514,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
         <v>49</v>
       </c>
@@ -2531,7 +2525,7 @@
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
     </row>
-    <row r="20" spans="1:5" ht="30.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" ht="30.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="13" t="s">
         <v>50</v>
       </c>
@@ -2546,7 +2540,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="32" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" ht="31.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="13" t="s">
         <v>52</v>
       </c>
@@ -2561,7 +2555,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="59" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" ht="58.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="13" t="s">
         <v>54</v>
       </c>
@@ -2576,7 +2570,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
         <v>56</v>
       </c>
@@ -2587,7 +2581,7 @@
       <c r="D23" s="4"/>
       <c r="E23" s="4"/>
     </row>
-    <row r="24" spans="1:5" ht="32.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5" ht="32.700000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="13" t="s">
         <v>57</v>
       </c>
@@ -2602,7 +2596,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="59.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5" ht="59.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="13" t="s">
         <v>59</v>
       </c>
@@ -2630,20 +2624,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{707AD77F-AD1F-4B96-8DA9-A040FF438B35}">
   <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="55" zoomScaleNormal="55" zoomScaleSheetLayoutView="37" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="55" zoomScaleNormal="55" zoomScaleSheetLayoutView="37" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="50.453125" customWidth="1"/>
+    <col min="1" max="1" width="50.44140625" customWidth="1"/>
     <col min="2" max="2" width="16" customWidth="1"/>
-    <col min="3" max="3" width="77.54296875" customWidth="1"/>
-    <col min="4" max="4" width="33.1796875" customWidth="1"/>
-    <col min="5" max="5" width="37.453125" customWidth="1"/>
+    <col min="3" max="3" width="77.5546875" customWidth="1"/>
+    <col min="4" max="4" width="33.21875" customWidth="1"/>
+    <col min="5" max="5" width="37.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>10</v>
       </c>
@@ -2660,7 +2654,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>61</v>
       </c>
@@ -2671,7 +2665,7 @@
       <c r="D2" s="6"/>
       <c r="E2" s="6"/>
     </row>
-    <row r="3" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>62</v>
       </c>
@@ -2686,7 +2680,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>63</v>
       </c>
@@ -2697,7 +2691,7 @@
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
     </row>
-    <row r="5" spans="1:5" ht="48.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" ht="48.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="11" t="s">
         <v>64</v>
       </c>
@@ -2712,7 +2706,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="11" t="s">
         <v>77</v>
       </c>
@@ -2727,7 +2721,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>66</v>
       </c>
@@ -2738,7 +2732,7 @@
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
     </row>
-    <row r="8" spans="1:5" ht="29.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" ht="29.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="11" t="s">
         <v>67</v>
       </c>
@@ -2753,7 +2747,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>69</v>
       </c>
@@ -2764,7 +2758,7 @@
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
     </row>
-    <row r="10" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="11" t="s">
         <v>70</v>
       </c>
@@ -2779,7 +2773,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>71</v>
       </c>
@@ -2790,7 +2784,7 @@
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
     </row>
-    <row r="12" spans="1:5" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="13" t="s">
         <v>72</v>
       </c>
@@ -2805,7 +2799,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
         <v>74</v>
       </c>
@@ -2816,7 +2810,7 @@
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
     </row>
-    <row r="14" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A14" s="13" t="s">
         <v>75</v>
       </c>
@@ -2825,28 +2819,28 @@
         <v>76</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E14" s="9" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="26" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B15" s="22"/>
       <c r="C15" s="23"/>
       <c r="D15" s="24"/>
       <c r="E15" s="24"/>
     </row>
-    <row r="16" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A16" s="20" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="18" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D16" s="19" t="s">
         <v>83</v>
@@ -2855,7 +2849,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
         <v>85</v>
       </c>
@@ -2866,22 +2860,22 @@
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
     </row>
-    <row r="18" spans="1:5" ht="58" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A18" s="20" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B18" s="17"/>
       <c r="C18" s="18" t="s">
-        <v>97</v>
-      </c>
-      <c r="D18" s="27" t="s">
+        <v>96</v>
+      </c>
+      <c r="D18" s="19" t="s">
         <v>84</v>
       </c>
       <c r="E18" s="19" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="31" customHeight="1" x14ac:dyDescent="0.35">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="13" t="s">
         <v>86</v>
       </c>
@@ -2890,13 +2884,13 @@
         <v>87</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="E19" s="9" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
+        <v>94</v>
+      </c>
+      <c r="E19" s="19" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
         <v>88</v>
       </c>
@@ -2907,7 +2901,7 @@
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>
     </row>
-    <row r="21" spans="1:5" ht="46.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="13" t="s">
         <v>90</v>
       </c>
@@ -2916,15 +2910,15 @@
         <v>89</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="E21" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="E21" s="19" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" s="4" t="s">
         <v>91</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A22" s="4" t="s">
-        <v>92</v>
       </c>
       <c r="B22" s="10">
         <v>3</v>
@@ -2933,25 +2927,25 @@
       <c r="D22" s="4"/>
       <c r="E22" s="4"/>
     </row>
-    <row r="23" spans="1:5" ht="70" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5" ht="70.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="13" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B23" s="3"/>
       <c r="C23" s="12" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D23" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="E23" s="9" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="32" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="25" spans="1:5" ht="59" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="27" spans="1:5" ht="32.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="28" spans="1:5" ht="59.75" customHeight="1" x14ac:dyDescent="0.35"/>
+      <c r="E23" s="19" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="31.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="25" spans="1:5" ht="58.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="27" spans="1:5" ht="32.700000000000003" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="28" spans="1:5" ht="59.7" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2962,20 +2956,20 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="cad3c75a-58d7-40e3-abd0-865ba3ea7957" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="cad3c75a-58d7-40e3-abd0-865ba3ea7957" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3129,6 +3123,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CC5A00A-4000-42AF-9964-66AE6D943A28}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{717C791E-FCB3-40AD-88FF-A49361D61F2C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
@@ -3140,14 +3142,6 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="cad3c75a-58d7-40e3-abd0-865ba3ea7957"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CC5A00A-4000-42AF-9964-66AE6D943A28}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/docs/Burndown chart.xlsx
+++ b/docs/Burndown chart.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martina\IdeaProjects\Progetto-SAD\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\attil\PycharmProjects\Progetto-SAD\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5432DF9C-F6E0-408B-B90A-5A7DE5D90E6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21C921D9-ED9B-4F1E-AAB1-D44EB13B71CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="2" xr2:uid="{EB4EC49D-06D4-4331-8995-0B2882866B42}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{EB4EC49D-06D4-4331-8995-0B2882866B42}"/>
   </bookViews>
   <sheets>
     <sheet name="Burndown Chart" sheetId="1" r:id="rId1"/>
@@ -681,7 +681,7 @@
                   <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -821,7 +821,7 @@
                   <c:v>103</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>103</c:v>
+                  <c:v>77</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2116,19 +2116,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9E092E5-C70C-4A02-95A3-9D8F5F48E490}">
   <dimension ref="A1:J6"/>
   <sheetViews>
-    <sheetView zoomScale="98" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="98" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="24.21875" customWidth="1"/>
-    <col min="3" max="3" width="21.21875" customWidth="1"/>
-    <col min="4" max="4" width="17.21875" customWidth="1"/>
-    <col min="5" max="5" width="18.77734375" customWidth="1"/>
+    <col min="2" max="2" width="24.1796875" customWidth="1"/>
+    <col min="3" max="3" width="21.1796875" customWidth="1"/>
+    <col min="4" max="4" width="17.1796875" customWidth="1"/>
+    <col min="5" max="5" width="18.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2145,7 +2145,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" s="16" t="s">
         <v>5</v>
       </c>
@@ -2171,7 +2171,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" s="16" t="s">
         <v>7</v>
       </c>
@@ -2190,7 +2190,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" s="16" t="s">
         <v>8</v>
       </c>
@@ -2209,26 +2209,26 @@
         <v>94</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" s="16" t="s">
         <v>9</v>
       </c>
       <c r="B5" s="2">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="C5" s="2">
         <v>0</v>
       </c>
       <c r="D5" s="2">
         <f t="shared" si="1"/>
-        <v>103</v>
+        <v>77</v>
       </c>
       <c r="E5" s="2">
         <f t="shared" si="2"/>
         <v>94</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -2253,16 +2253,16 @@
       <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="34.44140625" customWidth="1"/>
+    <col min="1" max="1" width="34.453125" customWidth="1"/>
     <col min="2" max="2" width="16" customWidth="1"/>
-    <col min="3" max="3" width="43.21875" customWidth="1"/>
-    <col min="4" max="4" width="25.77734375" customWidth="1"/>
-    <col min="5" max="5" width="41.21875" customWidth="1"/>
+    <col min="3" max="3" width="43.1796875" customWidth="1"/>
+    <col min="4" max="4" width="25.81640625" customWidth="1"/>
+    <col min="5" max="5" width="41.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>10</v>
       </c>
@@ -2279,7 +2279,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
         <v>15</v>
       </c>
@@ -2290,7 +2290,7 @@
       <c r="D2" s="6"/>
       <c r="E2" s="6"/>
     </row>
-    <row r="3" spans="1:5" ht="76.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="77" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="7" t="s">
         <v>16</v>
       </c>
@@ -2305,7 +2305,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
         <v>20</v>
       </c>
@@ -2316,7 +2316,7 @@
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
     </row>
-    <row r="5" spans="1:5" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" ht="42" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="11" t="s">
         <v>21</v>
       </c>
@@ -2331,7 +2331,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="11" t="s">
         <v>23</v>
       </c>
@@ -2346,7 +2346,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="30.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" ht="30.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="11" t="s">
         <v>26</v>
       </c>
@@ -2361,7 +2361,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="43.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" ht="44" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="13" t="s">
         <v>29</v>
       </c>
@@ -2376,7 +2376,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="4" t="s">
         <v>32</v>
       </c>
@@ -2387,7 +2387,7 @@
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
     </row>
-    <row r="10" spans="1:5" ht="58.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" ht="58.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="11" t="s">
         <v>33</v>
       </c>
@@ -2402,7 +2402,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="4" t="s">
         <v>35</v>
       </c>
@@ -2413,7 +2413,7 @@
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
     </row>
-    <row r="12" spans="1:5" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="11" t="s">
         <v>36</v>
       </c>
@@ -2428,7 +2428,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="58.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" ht="59" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="11" t="s">
         <v>38</v>
       </c>
@@ -2443,7 +2443,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="11" t="s">
         <v>40</v>
       </c>
@@ -2458,7 +2458,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" s="4" t="s">
         <v>42</v>
       </c>
@@ -2469,7 +2469,7 @@
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
     </row>
-    <row r="16" spans="1:5" ht="45.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" ht="45.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="13" t="s">
         <v>43</v>
       </c>
@@ -2484,7 +2484,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="73.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" ht="73.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="13" t="s">
         <v>45</v>
       </c>
@@ -2499,7 +2499,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" ht="46.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="13" t="s">
         <v>47</v>
       </c>
@@ -2514,7 +2514,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" s="4" t="s">
         <v>49</v>
       </c>
@@ -2525,7 +2525,7 @@
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
     </row>
-    <row r="20" spans="1:5" ht="30.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" ht="30.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="13" t="s">
         <v>50</v>
       </c>
@@ -2540,7 +2540,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="31.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" ht="32" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="13" t="s">
         <v>52</v>
       </c>
@@ -2555,7 +2555,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="58.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" ht="59" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="13" t="s">
         <v>54</v>
       </c>
@@ -2570,7 +2570,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" s="4" t="s">
         <v>56</v>
       </c>
@@ -2581,7 +2581,7 @@
       <c r="D23" s="4"/>
       <c r="E23" s="4"/>
     </row>
-    <row r="24" spans="1:5" ht="32.700000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" ht="32.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="13" t="s">
         <v>57</v>
       </c>
@@ -2596,7 +2596,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="59.7" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" ht="59.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="13" t="s">
         <v>59</v>
       </c>
@@ -2624,20 +2624,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{707AD77F-AD1F-4B96-8DA9-A040FF438B35}">
   <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="55" zoomScaleNormal="55" zoomScaleSheetLayoutView="37" workbookViewId="0">
+    <sheetView topLeftCell="A10" zoomScale="55" zoomScaleNormal="55" zoomScaleSheetLayoutView="37" workbookViewId="0">
       <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="50.44140625" customWidth="1"/>
+    <col min="1" max="1" width="50.453125" customWidth="1"/>
     <col min="2" max="2" width="16" customWidth="1"/>
-    <col min="3" max="3" width="77.5546875" customWidth="1"/>
-    <col min="4" max="4" width="33.21875" customWidth="1"/>
-    <col min="5" max="5" width="37.44140625" customWidth="1"/>
+    <col min="3" max="3" width="77.54296875" customWidth="1"/>
+    <col min="4" max="4" width="33.1796875" customWidth="1"/>
+    <col min="5" max="5" width="37.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>10</v>
       </c>
@@ -2654,7 +2654,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
         <v>61</v>
       </c>
@@ -2665,7 +2665,7 @@
       <c r="D2" s="6"/>
       <c r="E2" s="6"/>
     </row>
-    <row r="3" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="7" t="s">
         <v>62</v>
       </c>
@@ -2680,7 +2680,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
         <v>63</v>
       </c>
@@ -2691,7 +2691,7 @@
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
     </row>
-    <row r="5" spans="1:5" ht="48.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" ht="48.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="11" t="s">
         <v>64</v>
       </c>
@@ -2706,7 +2706,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="11" t="s">
         <v>77</v>
       </c>
@@ -2721,7 +2721,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="4" t="s">
         <v>66</v>
       </c>
@@ -2732,7 +2732,7 @@
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
     </row>
-    <row r="8" spans="1:5" ht="29.55" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" ht="29.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="11" t="s">
         <v>67</v>
       </c>
@@ -2747,7 +2747,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="4" t="s">
         <v>69</v>
       </c>
@@ -2758,7 +2758,7 @@
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
     </row>
-    <row r="10" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="11" t="s">
         <v>70</v>
       </c>
@@ -2773,7 +2773,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="4" t="s">
         <v>71</v>
       </c>
@@ -2784,7 +2784,7 @@
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
     </row>
-    <row r="12" spans="1:5" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="13" t="s">
         <v>72</v>
       </c>
@@ -2799,7 +2799,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="4" t="s">
         <v>74</v>
       </c>
@@ -2810,7 +2810,7 @@
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
     </row>
-    <row r="14" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A14" s="13" t="s">
         <v>75</v>
       </c>
@@ -2825,7 +2825,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" s="26" t="s">
         <v>99</v>
       </c>
@@ -2834,7 +2834,7 @@
       <c r="D15" s="24"/>
       <c r="E15" s="24"/>
     </row>
-    <row r="16" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A16" s="20" t="s">
         <v>97</v>
       </c>
@@ -2849,7 +2849,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" s="4" t="s">
         <v>85</v>
       </c>
@@ -2860,7 +2860,7 @@
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
     </row>
-    <row r="18" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" ht="58" x14ac:dyDescent="0.35">
       <c r="A18" s="20" t="s">
         <v>95</v>
       </c>
@@ -2875,7 +2875,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" ht="31" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="13" t="s">
         <v>86</v>
       </c>
@@ -2890,7 +2890,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="4" t="s">
         <v>88</v>
       </c>
@@ -2901,7 +2901,7 @@
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>
     </row>
-    <row r="21" spans="1:5" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" ht="46.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="13" t="s">
         <v>90</v>
       </c>
@@ -2916,7 +2916,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" s="4" t="s">
         <v>91</v>
       </c>
@@ -2927,7 +2927,7 @@
       <c r="D22" s="4"/>
       <c r="E22" s="4"/>
     </row>
-    <row r="23" spans="1:5" ht="70.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" ht="70" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="13" t="s">
         <v>93</v>
       </c>
@@ -2942,10 +2942,10 @@
         <v>19</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="31.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="25" spans="1:5" ht="58.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="27" spans="1:5" ht="32.700000000000003" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="28" spans="1:5" ht="59.7" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="24" spans="1:5" ht="32" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="25" spans="1:5" ht="59" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="27" spans="1:5" ht="32.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="28" spans="1:5" ht="59.75" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2956,20 +2956,20 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="cad3c75a-58d7-40e3-abd0-865ba3ea7957" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="cad3c75a-58d7-40e3-abd0-865ba3ea7957" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3123,14 +3123,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CC5A00A-4000-42AF-9964-66AE6D943A28}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{717C791E-FCB3-40AD-88FF-A49361D61F2C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
@@ -3142,6 +3134,14 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="cad3c75a-58d7-40e3-abd0-865ba3ea7957"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CC5A00A-4000-42AF-9964-66AE6D943A28}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/docs/Burndown chart.xlsx
+++ b/docs/Burndown chart.xlsx
@@ -5,17 +5,18 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\attil\PycharmProjects\Progetto-SAD\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vince\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21C921D9-ED9B-4F1E-AAB1-D44EB13B71CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BD5FCB3A-2BDF-45D5-85CA-DF3F793F53FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{EB4EC49D-06D4-4331-8995-0B2882866B42}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="3" xr2:uid="{EB4EC49D-06D4-4331-8995-0B2882866B42}"/>
   </bookViews>
   <sheets>
     <sheet name="Burndown Chart" sheetId="1" r:id="rId1"/>
     <sheet name="Task Sprint 1" sheetId="2" r:id="rId2"/>
     <sheet name="Task Sprint 2" sheetId="4" r:id="rId3"/>
+    <sheet name="Task Sprint 3 " sheetId="6" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="141">
   <si>
     <t>Sprint</t>
   </si>
@@ -229,76 +230,95 @@
     <t>TSK18: Gestione operazione selezione</t>
   </si>
   <si>
+    <t>Implementare la logica per il selezionamento e il deselezionamento di una forma geometrica nello spazio di lavoro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Treglia Martina Rosaria </t>
+  </si>
+  <si>
     <t>US #9</t>
   </si>
   <si>
     <t>TSK19: Menu contestuale e voce "Elimina"</t>
-  </si>
-  <si>
-    <t>Associare la comparsa del menu contestuale alla pressione del tasto destro del mouse al di sopra di una forma nello spazio di lavoro</t>
-  </si>
-  <si>
-    <t>US #10</t>
-  </si>
-  <si>
-    <t>TSK21: Gestione spostamento forme</t>
-  </si>
-  <si>
-    <t>Associare l’evento di trascinamento alle forme dello spazio di lavoro, in modo da consentire lo spostamento dinamico visivo delle forme</t>
-  </si>
-  <si>
-    <t>US #11</t>
-  </si>
-  <si>
-    <t>TSK22: Implementazione modifica colore bordi</t>
-  </si>
-  <si>
-    <t>US #12</t>
-  </si>
-  <si>
-    <t>TSK23: Implementazione modifica colore riempimento</t>
-  </si>
-  <si>
-    <t>Implementare il cambiamento del colore del riempimento della forma selezionata quando avviene l’evento di scelta di un colore dal color picker del riempimento. L’evento deve interessare solo le forme 2D</t>
-  </si>
-  <si>
-    <t>US #13</t>
-  </si>
-  <si>
-    <t>TSK24: Voce "Ridimensiona" menu contestuale</t>
-  </si>
-  <si>
-    <t>Aggiungere al menu la voce "Ridimensiona", che, quando selezionata, apre una finestra di dialogo per l'inserimento delle nuove dimensioni della forma. Le dimensioni verranno applicate alla forma al momento della conferma</t>
-  </si>
-  <si>
-    <t>TSK20: Comparsa menu contestuale</t>
   </si>
   <si>
     <t>Creare in fase di inizializzazione dell’applicazione un menu contestuale.
 Aggiungere al menu la voce "Elimina", che, quando selezionata, rimuove dallo spazio di lavoro la forma su cui è stato aperto il menu</t>
   </si>
   <si>
+    <t xml:space="preserve"> Santonicola Federico</t>
+  </si>
+  <si>
+    <t>TSK20: Comparsa menu contestuale</t>
+  </si>
+  <si>
+    <t>Associare la comparsa del menu contestuale alla pressione del tasto destro del mouse al di sopra di una forma nello spazio di lavoro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Santonicola Federico </t>
+  </si>
+  <si>
+    <t>US #10</t>
+  </si>
+  <si>
+    <t>TSK21: Gestione spostamento forme</t>
+  </si>
+  <si>
+    <t>Associare l’evento di trascinamento alle forme dello spazio di lavoro, in modo da consentire lo spostamento dinamico visivo delle forme</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Masturzo Vincenzo Pietro Pio </t>
+  </si>
+  <si>
+    <t>US #11</t>
+  </si>
+  <si>
+    <t>TSK22: Implementazione modifica colore bordi</t>
+  </si>
+  <si>
     <t>Implementare il cambiamento del colore dei bordi della forma selezionata quando avviene l’evento di scelta di un colore dal color picker dei bordi</t>
   </si>
   <si>
-    <t>Implementare la logica per il selezionamento e il deselezionamento di una forma geometrica nello spazio di lavoro</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Masturzo Vincenzo Pietro Pio </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Santonicola Federico</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Santonicola Federico </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Treglia Martina Rosaria </t>
+    <t>US #12</t>
+  </si>
+  <si>
+    <t>TSK23: Implementazione modifica colore riempimento</t>
+  </si>
+  <si>
+    <t>Implementare il cambiamento del colore del riempimento della forma selezionata quando avviene l’evento di scelta di un colore dal color picker del riempimento. L’evento deve interessare solo le forme 2D</t>
+  </si>
+  <si>
+    <t>US #13</t>
+  </si>
+  <si>
+    <t>TSK24: Voce "Ridimensiona" menu contestuale</t>
+  </si>
+  <si>
+    <t>Aggiungere al menu la voce "Ridimensiona", che, quando selezionata, apre una finestra di dialogo per l'inserimento delle nuove dimensioni della forma. Le dimensioni verranno applicate alla forma al momento della conferma</t>
+  </si>
+  <si>
+    <t>Sessa Attilio Marco</t>
+  </si>
+  <si>
+    <t>Refactoring UI</t>
+  </si>
+  <si>
+    <t>TSK25: Fix scelta forma</t>
+  </si>
+  <si>
+    <t>Modificare le forme selezionabili dalla barra degli strumenti trasformandole in pulsanti, in modo da semplificare il clic da parte dell’utente</t>
   </si>
   <si>
     <t>US #14</t>
   </si>
   <si>
+    <t>TSK26: Clonazione forme</t>
+  </si>
+  <si>
+    <t>Aggiungere il metodo “clone” all’interfaccia ShapeInterface ed effettuarne la sua implementazione nelle forme concrete.
+Il metodo deve restituire una nuova forma che presenti le stesse proprietà della forma su cui è stato invocato il metodo</t>
+  </si>
+  <si>
     <t>TSK27: Voce "Copia" menu contestuale forme</t>
   </si>
   <si>
@@ -308,39 +328,145 @@
     <t>US #15</t>
   </si>
   <si>
+    <t>TSK28: Voce "Taglia" menu contestuale forme</t>
+  </si>
+  <si>
     <t>Aggiungere al menu contestuale la voce "Taglia", che, quando selezionata permetta di clonare e rimuovere dallo spazio di lavoro la forma su cui è stato aperto il menu, in modo da poterla riutilizzare successivamente</t>
   </si>
   <si>
-    <t>TSK28: Voce "Taglia" menu contestuale forme</t>
-  </si>
-  <si>
     <t>US #16</t>
+  </si>
+  <si>
+    <t>TSK29: Voce "Incolla" menu contestuale spazio di lavoro</t>
   </si>
   <si>
     <t>Creare in fase di inizializzazione dell’applicazione un menu contestuale specifico per lo spazio di lavoro, che appaia quando si effettua il clic destro del mouse in un suo punto vuoto.
 Aggiungere a questo menu la voce "Incolla", che, quando selezionata, incolli la forma precedentemente copiata, con il suo centro nel punto su cui è stato aperto il menu</t>
   </si>
   <si>
-    <t>TSK29: Voce "Incolla" menu contestuale spazio di lavoro</t>
-  </si>
-  <si>
-    <t>Sessa Attilio Marco</t>
-  </si>
-  <si>
-    <t>TSK26: Clonazione forme</t>
-  </si>
-  <si>
-    <t>Aggiungere il metodo “clone” all’interfaccia ShapeInterface ed effettuarne la sua implementazione nelle forme concrete.
-Il metodo deve restituire una nuova forma che presenti le stesse proprietà della forma su cui è stato invocato il metodo</t>
-  </si>
-  <si>
-    <t>TSK25: Fix scelta forma</t>
-  </si>
-  <si>
-    <t>Modificare le forme selezionabili dalla barra degli strumenti trasformandole in pulsanti, in modo da semplificare il clic da parte dell’utente</t>
-  </si>
-  <si>
-    <t>Refactoring UI</t>
+    <t>US #17</t>
+  </si>
+  <si>
+    <t>Non Iniziata</t>
+  </si>
+  <si>
+    <t>TSK31: Implementazione comandi eliminazione, ridimensiona, cambio colore e trascinamento</t>
+  </si>
+  <si>
+    <t>Implementare i comandi: DeleteCommand, ResizeCommand, ChangeColorCommand e DragCommand</t>
+  </si>
+  <si>
+    <t>Effettuare il refactoring del controller affinchè utilizzi la logica dei Command</t>
+  </si>
+  <si>
+    <t>Aggiungere un bottone ‘Annulla’ alla barra degli strumenti, che quando cliccato consenta di effettuare l’annullamento dell’ultima operazione che ha modificato lo spazio di lavoro</t>
+  </si>
+  <si>
+    <t>US #18</t>
+  </si>
+  <si>
+    <t>Implementare il comando BringFrontCommand</t>
+  </si>
+  <si>
+    <t>Aggiungere al menu contestuale delle forme la voce "Porta avanti", che, quando selezionata permetta di fornire la priorità visiva massima alla forma selezionata</t>
+  </si>
+  <si>
+    <t>US #19</t>
+  </si>
+  <si>
+    <t>Implementare il comando BringBackCommand</t>
+  </si>
+  <si>
+    <t>US #20</t>
+  </si>
+  <si>
+    <t>US #21</t>
+  </si>
+  <si>
+    <t>US #22</t>
+  </si>
+  <si>
+    <t>US #23</t>
+  </si>
+  <si>
+    <t>US #24</t>
+  </si>
+  <si>
+    <t>Aggiungere al menu contestuale delle forme la voce "Porta dietro", che, quando selezionata permetta di fornire la priorità visiva minima alla forma selezionata</t>
+  </si>
+  <si>
+    <t>Gestire l’operazione del panning dello spazio di lavoro e la sua conseguente espansione</t>
+  </si>
+  <si>
+    <t>Implementare la disattivazione della griglia quando il toggle button della barra degli strumenti viene deselezionato</t>
+  </si>
+  <si>
+    <t>Aggiungere un campo di testo alla barra degli strumenti che permette di inserire le nuove dimensioni in pixel della griglia</t>
+  </si>
+  <si>
+    <t>TSK32: Storia dei comandi</t>
+  </si>
+  <si>
+    <t>Creare la classe CommandHistory che permetta di conservare la storia dei comandi eseguiti</t>
+  </si>
+  <si>
+    <t>TSK33: Integrazione Command</t>
+  </si>
+  <si>
+    <t>TSK34: Pulsante Annulla</t>
+  </si>
+  <si>
+    <t>TSK35: Comando porta avanti</t>
+  </si>
+  <si>
+    <t>TSK36: Voce "Porta avanti" menu contestuale forme</t>
+  </si>
+  <si>
+    <t>TSK37: Comando porta dietro</t>
+  </si>
+  <si>
+    <t>TSK38: Voce "Porta dietro" menu contestuale forme</t>
+  </si>
+  <si>
+    <t>TSK39: Implementazione zoom</t>
+  </si>
+  <si>
+    <t>TSK40: Navigazione nello spazio di lavoro</t>
+  </si>
+  <si>
+    <t>TSK41: Abilitazione visualizzazione griglia</t>
+  </si>
+  <si>
+    <t>TSK42: Disabilitazione visualizzazione griglia</t>
+  </si>
+  <si>
+    <t>TSK43: Modifica dimensione griglia</t>
+  </si>
+  <si>
+    <t>TSK44: Metodo toJavaFXShape</t>
+  </si>
+  <si>
+    <t>Aggiungere il metodo toJavaFXShape all'interfaccia ShapeInterface, da implementare nelle sottoclassi in modo che ciascuna restituisca la propria corrispettiva Shape di JavaFX.
+Modificare il ViewController sostituendo i cast espliciti da ShapeInterface con l’utilizzo di questo nuovo metodo.</t>
+  </si>
+  <si>
+    <t>TSK30: Implementazione comandi inserimento, taglia e incolla</t>
+  </si>
+  <si>
+    <t>Creare l’interfaccia Command.
+Successivamente implementare i comandi: InsertCommand, CutCommand, PasteCommand</t>
+  </si>
+  <si>
+    <t>Treglia Martina Rosaria</t>
+  </si>
+  <si>
+    <t>Aggiungere 4 radio button alla barra degli strumenti che al clic permettano di visualizzare con uno zoom differente lo spazio di lavoro, nei 4 livelli di zoom previsti</t>
+  </si>
+  <si>
+    <t>Masturzo Vincenzo Pietro Pio</t>
+  </si>
+  <si>
+    <t>Aggiungere alla barra degli strumenti un toggle button che quando selezionato permetta di attivare la visualizzazione di una griglia</t>
   </si>
 </sst>
 </file>
@@ -423,7 +549,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -495,11 +621,23 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="9">
+  <dxfs count="10">
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -1753,17 +1891,21 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{C04064D0-0483-4F2B-8D80-6D3C94DE3902}" name="Tabella1" displayName="Tabella1" ref="A1:E5" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{C04064D0-0483-4F2B-8D80-6D3C94DE3902}" name="Tabella1" displayName="Tabella1" ref="A1:E5" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
   <autoFilter ref="A1:E5" xr:uid="{C04064D0-0483-4F2B-8D80-6D3C94DE3902}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{061EAA47-99FF-4793-95C8-BBDBFAB68B33}" name="Sprint" dataDxfId="6"/>
-    <tableColumn id="2" xr3:uid="{0427415D-9094-454F-801E-7C8370F5057B}" name="N. Story Points pianificati " dataDxfId="5"/>
-    <tableColumn id="3" xr3:uid="{9FF0FE81-35D7-440E-ACF3-28F0967414F5}" name="N. Story Points Effetivi" dataDxfId="4"/>
-    <tableColumn id="4" xr3:uid="{4E440841-1C21-4305-8736-56D183C48267}" name="Burndown ideale" dataDxfId="3">
+    <tableColumn id="1" xr3:uid="{061EAA47-99FF-4793-95C8-BBDBFAB68B33}" name="Sprint" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{0427415D-9094-454F-801E-7C8370F5057B}" name="N. Story Points pianificati " dataDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{9FF0FE81-35D7-440E-ACF3-28F0967414F5}" name="N. Story Points Effetivi" dataDxfId="5"/>
+    <tableColumn id="4" xr3:uid="{4E440841-1C21-4305-8736-56D183C48267}" name="Burndown ideale" dataDxfId="4">
       <calculatedColumnFormula xml:space="preserve"> J2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{918E4C8B-3525-4513-B51F-F3AF25E2A893}" name="Burndown effettivo" dataDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{918E4C8B-3525-4513-B51F-F3AF25E2A893}" name="Burndown effettivo" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1774,7 +1916,7 @@
   <autoFilter ref="A1:E25" xr:uid="{E07966A9-29FE-45C1-9972-C1153BCDC387}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{A4C26D35-B636-48F1-8216-6AF7824FB392}" name="Task"/>
-    <tableColumn id="2" xr3:uid="{400E9A22-2A31-428D-B3DC-6AED50B749EC}" name="Story points" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{400E9A22-2A31-428D-B3DC-6AED50B749EC}" name="Story points" dataDxfId="2"/>
     <tableColumn id="3" xr3:uid="{F515B9E0-CA05-4C03-9D7F-1048D7D06F35}" name="Descrizione task"/>
     <tableColumn id="4" xr3:uid="{BE256754-E981-4918-8949-6BCAC8EE6193}" name="Membro responsabile"/>
     <tableColumn id="5" xr3:uid="{5CD69F92-0583-4260-B7B8-44E950556925}" name="Stato"/>
@@ -1788,10 +1930,24 @@
   <autoFilter ref="A1:E23" xr:uid="{E07966A9-29FE-45C1-9972-C1153BCDC387}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{D57302FE-9F4A-4540-818F-8DD4A3E4E2E7}" name="Task"/>
-    <tableColumn id="2" xr3:uid="{555A8DDC-F214-4A7C-A61F-F434A1810BE9}" name="Story points" dataDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{555A8DDC-F214-4A7C-A61F-F434A1810BE9}" name="Story points" dataDxfId="1"/>
     <tableColumn id="3" xr3:uid="{A0B8F493-93D8-4196-A1AE-68C597412E5B}" name="Descrizione task"/>
     <tableColumn id="4" xr3:uid="{DFEB7848-77FB-4564-BAF4-A7EA69517584}" name="Membro responsabile"/>
     <tableColumn id="5" xr3:uid="{B0B02EFD-25AC-4CFD-8FA8-A2BABA4F0610}" name="Stato"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{0C3214D8-E641-4CDA-BA49-82C753B6B53A}" name="TaskSprint124" displayName="TaskSprint124" ref="A1:E25" totalsRowShown="0">
+  <autoFilter ref="A1:E25" xr:uid="{E07966A9-29FE-45C1-9972-C1153BCDC387}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{C7E4A021-B31D-423E-ACA8-6A4086FA02CE}" name="Task"/>
+    <tableColumn id="2" xr3:uid="{68C719E5-B779-453D-BEA3-8FF5407C8A1D}" name="Story points" dataDxfId="0"/>
+    <tableColumn id="3" xr3:uid="{3E8039D0-0500-419B-AAD0-5217E1949442}" name="Descrizione task"/>
+    <tableColumn id="4" xr3:uid="{9CD8160F-1F2F-4067-99CD-27D8DE790E1A}" name="Membro responsabile"/>
+    <tableColumn id="5" xr3:uid="{5F073FCC-99B0-4EF9-9596-9F6DD7FD2355}" name="Stato"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2116,19 +2272,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9E092E5-C70C-4A02-95A3-9D8F5F48E490}">
   <dimension ref="A1:J6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="98" workbookViewId="0">
+    <sheetView zoomScale="98" workbookViewId="0">
       <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="24.1796875" customWidth="1"/>
-    <col min="3" max="3" width="21.1796875" customWidth="1"/>
-    <col min="4" max="4" width="17.1796875" customWidth="1"/>
-    <col min="5" max="5" width="18.81640625" customWidth="1"/>
+    <col min="2" max="2" width="24.33203125" customWidth="1"/>
+    <col min="3" max="3" width="21.33203125" customWidth="1"/>
+    <col min="4" max="4" width="17.33203125" customWidth="1"/>
+    <col min="5" max="5" width="18.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2145,7 +2301,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="16" t="s">
         <v>5</v>
       </c>
@@ -2171,7 +2327,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="16" t="s">
         <v>7</v>
       </c>
@@ -2190,7 +2346,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="16" t="s">
         <v>8</v>
       </c>
@@ -2209,7 +2365,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="16" t="s">
         <v>9</v>
       </c>
@@ -2228,7 +2384,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -2249,20 +2405,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F59B876-E793-45F0-95C7-4E253C5C7DF4}">
   <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" zoomScale="68" zoomScaleNormal="68" zoomScaleSheetLayoutView="37" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+    <sheetView zoomScale="68" zoomScaleNormal="68" zoomScaleSheetLayoutView="37" workbookViewId="0">
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="34.453125" customWidth="1"/>
+    <col min="1" max="1" width="34.44140625" customWidth="1"/>
     <col min="2" max="2" width="16" customWidth="1"/>
-    <col min="3" max="3" width="43.1796875" customWidth="1"/>
-    <col min="4" max="4" width="25.81640625" customWidth="1"/>
-    <col min="5" max="5" width="41.1796875" customWidth="1"/>
+    <col min="3" max="3" width="43.33203125" customWidth="1"/>
+    <col min="4" max="4" width="25.6640625" customWidth="1"/>
+    <col min="5" max="5" width="41.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>10</v>
       </c>
@@ -2279,7 +2435,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>15</v>
       </c>
@@ -2290,7 +2446,7 @@
       <c r="D2" s="6"/>
       <c r="E2" s="6"/>
     </row>
-    <row r="3" spans="1:5" ht="77" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>16</v>
       </c>
@@ -2305,7 +2461,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>20</v>
       </c>
@@ -2316,7 +2472,7 @@
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
     </row>
-    <row r="5" spans="1:5" ht="42" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="11" t="s">
         <v>21</v>
       </c>
@@ -2331,7 +2487,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="11" t="s">
         <v>23</v>
       </c>
@@ -2346,7 +2502,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="30.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" ht="30.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="11" t="s">
         <v>26</v>
       </c>
@@ -2361,7 +2517,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="44" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" ht="43.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="13" t="s">
         <v>29</v>
       </c>
@@ -2376,7 +2532,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>32</v>
       </c>
@@ -2387,7 +2543,7 @@
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
     </row>
-    <row r="10" spans="1:5" ht="58.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" ht="58.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="11" t="s">
         <v>33</v>
       </c>
@@ -2402,7 +2558,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>35</v>
       </c>
@@ -2413,7 +2569,7 @@
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
     </row>
-    <row r="12" spans="1:5" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="11" t="s">
         <v>36</v>
       </c>
@@ -2428,7 +2584,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="59" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" ht="58.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="11" t="s">
         <v>38</v>
       </c>
@@ -2443,7 +2599,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="11" t="s">
         <v>40</v>
       </c>
@@ -2458,7 +2614,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
         <v>42</v>
       </c>
@@ -2469,7 +2625,7 @@
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
     </row>
-    <row r="16" spans="1:5" ht="45.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" ht="45.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="13" t="s">
         <v>43</v>
       </c>
@@ -2484,7 +2640,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="73.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" ht="73.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="13" t="s">
         <v>45</v>
       </c>
@@ -2499,7 +2655,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="46.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="13" t="s">
         <v>47</v>
       </c>
@@ -2514,7 +2670,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
         <v>49</v>
       </c>
@@ -2525,7 +2681,7 @@
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
     </row>
-    <row r="20" spans="1:5" ht="30.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" ht="30.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="13" t="s">
         <v>50</v>
       </c>
@@ -2540,7 +2696,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="32" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" ht="31.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="13" t="s">
         <v>52</v>
       </c>
@@ -2555,7 +2711,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="59" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" ht="58.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="13" t="s">
         <v>54</v>
       </c>
@@ -2570,7 +2726,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
         <v>56</v>
       </c>
@@ -2581,7 +2737,7 @@
       <c r="D23" s="4"/>
       <c r="E23" s="4"/>
     </row>
-    <row r="24" spans="1:5" ht="32.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5" ht="32.700000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="13" t="s">
         <v>57</v>
       </c>
@@ -2596,7 +2752,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="59.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5" ht="59.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="13" t="s">
         <v>59</v>
       </c>
@@ -2624,20 +2780,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{707AD77F-AD1F-4B96-8DA9-A040FF438B35}">
   <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="55" zoomScaleNormal="55" zoomScaleSheetLayoutView="37" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView zoomScale="55" zoomScaleNormal="55" zoomScaleSheetLayoutView="37" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="50.453125" customWidth="1"/>
+    <col min="1" max="1" width="50.44140625" customWidth="1"/>
     <col min="2" max="2" width="16" customWidth="1"/>
-    <col min="3" max="3" width="77.54296875" customWidth="1"/>
-    <col min="4" max="4" width="33.1796875" customWidth="1"/>
-    <col min="5" max="5" width="37.453125" customWidth="1"/>
+    <col min="3" max="3" width="77.5546875" customWidth="1"/>
+    <col min="4" max="4" width="33.33203125" customWidth="1"/>
+    <col min="5" max="5" width="37.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>10</v>
       </c>
@@ -2654,7 +2810,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>61</v>
       </c>
@@ -2665,24 +2821,24 @@
       <c r="D2" s="6"/>
       <c r="E2" s="6"/>
     </row>
-    <row r="3" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>62</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="8" t="s">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>84</v>
+        <v>64</v>
       </c>
       <c r="E3" s="9" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B4" s="10">
         <v>3</v>
@@ -2691,39 +2847,39 @@
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
     </row>
-    <row r="5" spans="1:5" ht="48.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" ht="48.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="11" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="12" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>82</v>
+        <v>68</v>
       </c>
       <c r="E5" s="9" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="11" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="B6" s="3"/>
       <c r="C6" s="12" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="E6" s="9" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="B7" s="10">
         <v>3</v>
@@ -2732,24 +2888,24 @@
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
     </row>
-    <row r="8" spans="1:5" ht="29.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" ht="29.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="11" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="B8" s="3"/>
       <c r="C8" s="12" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="E8" s="9" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="B9" s="10">
         <v>3</v>
@@ -2758,24 +2914,24 @@
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
     </row>
-    <row r="10" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="11" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="B10" s="3"/>
       <c r="C10" s="12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="E10" s="9" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="B11" s="10">
         <v>3</v>
@@ -2784,24 +2940,24 @@
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
     </row>
-    <row r="12" spans="1:5" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="13" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="B12" s="3"/>
       <c r="C12" s="12" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>84</v>
+        <v>64</v>
       </c>
       <c r="E12" s="9" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="B13" s="10">
         <v>5</v>
@@ -2810,48 +2966,48 @@
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
     </row>
-    <row r="14" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A14" s="13" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="B14" s="3"/>
       <c r="C14" s="12" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="E14" s="9" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="26" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="B15" s="22"/>
       <c r="C15" s="23"/>
       <c r="D15" s="24"/>
       <c r="E15" s="24"/>
     </row>
-    <row r="16" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A16" s="20" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="18" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="D16" s="19" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="E16" s="19" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B17" s="10">
         <v>3</v>
@@ -2860,39 +3016,39 @@
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
     </row>
-    <row r="18" spans="1:5" ht="58" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A18" s="20" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="B18" s="17"/>
       <c r="C18" s="18" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="D18" s="19" t="s">
-        <v>84</v>
+        <v>64</v>
       </c>
       <c r="E18" s="19" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="31" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="13" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="B19" s="3"/>
       <c r="C19" s="21" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="E19" s="19" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="B20" s="10">
         <v>3</v>
@@ -2901,24 +3057,24 @@
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>
     </row>
-    <row r="21" spans="1:5" ht="46.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="13" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B21" s="3"/>
       <c r="C21" s="12" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="E21" s="19" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="B22" s="10">
         <v>3</v>
@@ -2927,25 +3083,25 @@
       <c r="D22" s="4"/>
       <c r="E22" s="4"/>
     </row>
-    <row r="23" spans="1:5" ht="70" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5" ht="70.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="13" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="B23" s="3"/>
       <c r="C23" s="12" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="E23" s="19" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="32" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="25" spans="1:5" ht="59" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="27" spans="1:5" ht="32.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="28" spans="1:5" ht="59.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="24" spans="1:5" ht="31.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="25" spans="1:5" ht="58.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="27" spans="1:5" ht="32.700000000000003" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="28" spans="1:5" ht="59.7" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2955,15 +3111,374 @@
 </worksheet>
 </file>
 
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="cad3c75a-58d7-40e3-abd0-865ba3ea7957" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D2B26B3-2611-4BA2-A2BF-A1C920DED04D}">
+  <dimension ref="A1:E26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="37" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="78.33203125" customWidth="1"/>
+    <col min="2" max="2" width="16" customWidth="1"/>
+    <col min="3" max="3" width="87.21875" customWidth="1"/>
+    <col min="4" max="4" width="33.33203125" customWidth="1"/>
+    <col min="5" max="5" width="37.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="B2" s="5">
+        <v>5</v>
+      </c>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+    </row>
+    <row r="3" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="B4" s="3"/>
+      <c r="C4" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="B5" s="3"/>
+      <c r="C5" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="B6" s="3"/>
+      <c r="C6" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A7" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="B7" s="3"/>
+      <c r="C7" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="B8" s="10">
+        <v>3</v>
+      </c>
+      <c r="C8" s="29"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="B9" s="3"/>
+      <c r="C9" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A10" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="B10" s="3"/>
+      <c r="C10" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="B11" s="10">
+        <v>3</v>
+      </c>
+      <c r="C11" s="29"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="B12" s="3"/>
+      <c r="C12" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A13" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="B13" s="3"/>
+      <c r="C13" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="B14" s="10">
+        <v>5</v>
+      </c>
+      <c r="C14" s="29"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+    </row>
+    <row r="15" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A15" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="B15" s="3"/>
+      <c r="C15" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="B16" s="10">
+        <v>3</v>
+      </c>
+      <c r="C16" s="29"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="B17" s="3"/>
+      <c r="C17" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="B18" s="10">
+        <v>2</v>
+      </c>
+      <c r="C18" s="29"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+    </row>
+    <row r="19" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="B19" s="3"/>
+      <c r="C19" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="26" t="s">
+        <v>114</v>
+      </c>
+      <c r="B20" s="28">
+        <v>2</v>
+      </c>
+      <c r="C20" s="23"/>
+      <c r="D20" s="24"/>
+      <c r="E20" s="24"/>
+    </row>
+    <row r="21" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="20" t="s">
+        <v>131</v>
+      </c>
+      <c r="B21" s="25"/>
+      <c r="C21" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="E21" s="19" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="B22" s="10">
+        <v>3</v>
+      </c>
+      <c r="C22" s="29"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+    </row>
+    <row r="23" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A23" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="B23" s="3"/>
+      <c r="C23" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="E23" s="19" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B24" s="27"/>
+      <c r="C24" s="29"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+    </row>
+    <row r="25" spans="1:5" ht="58.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="B25" s="3"/>
+      <c r="C25" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="E25" s="19" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -2972,7 +3487,7 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101006D06A881EF84BF4D9C2E0A241D74C9AB" ma:contentTypeVersion="5" ma:contentTypeDescription="Creare un nuovo documento." ma:contentTypeScope="" ma:versionID="6ad53b5fb9ed4d9ca0953b41cd1c771f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="cad3c75a-58d7-40e3-abd0-865ba3ea7957" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="cacddd16a8291ce2bddd10790055ff38" ns3:_="">
     <xsd:import namespace="cad3c75a-58d7-40e3-abd0-865ba3ea7957"/>
@@ -3122,23 +3637,15 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{717C791E-FCB3-40AD-88FF-A49361D61F2C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="cad3c75a-58d7-40e3-abd0-865ba3ea7957"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="cad3c75a-58d7-40e3-abd0-865ba3ea7957" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CC5A00A-4000-42AF-9964-66AE6D943A28}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
@@ -3146,7 +3653,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A080C301-2896-455C-B03E-90A728C8991F}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3162,4 +3669,20 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{717C791E-FCB3-40AD-88FF-A49361D61F2C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="cad3c75a-58d7-40e3-abd0-865ba3ea7957"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/docs/Burndown chart.xlsx
+++ b/docs/Burndown chart.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vince\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martina\IdeaProjects\Progetto-SAD\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BD5FCB3A-2BDF-45D5-85CA-DF3F793F53FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9216EBA-1568-4C95-942B-7F6FBCFB1D8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="3" xr2:uid="{EB4EC49D-06D4-4331-8995-0B2882866B42}"/>
   </bookViews>
@@ -350,12 +350,6 @@
     <t>Non Iniziata</t>
   </si>
   <si>
-    <t>TSK31: Implementazione comandi eliminazione, ridimensiona, cambio colore e trascinamento</t>
-  </si>
-  <si>
-    <t>Implementare i comandi: DeleteCommand, ResizeCommand, ChangeColorCommand e DragCommand</t>
-  </si>
-  <si>
     <t>Effettuare il refactoring del controller affinchè utilizzi la logica dei Command</t>
   </si>
   <si>
@@ -450,23 +444,29 @@
 Modificare il ViewController sostituendo i cast espliciti da ShapeInterface con l’utilizzo di questo nuovo metodo.</t>
   </si>
   <si>
-    <t>TSK30: Implementazione comandi inserimento, taglia e incolla</t>
+    <t>Treglia Martina Rosaria</t>
+  </si>
+  <si>
+    <t>Aggiungere 4 radio button alla barra degli strumenti che al clic permettano di visualizzare con uno zoom differente lo spazio di lavoro, nei 4 livelli di zoom previsti</t>
+  </si>
+  <si>
+    <t>Masturzo Vincenzo Pietro Pio</t>
+  </si>
+  <si>
+    <t>Aggiungere alla barra degli strumenti un toggle button che quando selezionato permetta di attivare la visualizzazione di una griglia</t>
+  </si>
+  <si>
+    <t>TSK30: Implementazione comandi inserimento e trascinamento</t>
+  </si>
+  <si>
+    <t>TSK31: Implementazione comandi eliminazione, ridimensiona, cambio colore</t>
+  </si>
+  <si>
+    <t>Implementare i comandi: DeleteCommand, ResizeCommand, ChangeColorCommand</t>
   </si>
   <si>
     <t>Creare l’interfaccia Command.
-Successivamente implementare i comandi: InsertCommand, CutCommand, PasteCommand</t>
-  </si>
-  <si>
-    <t>Treglia Martina Rosaria</t>
-  </si>
-  <si>
-    <t>Aggiungere 4 radio button alla barra degli strumenti che al clic permettano di visualizzare con uno zoom differente lo spazio di lavoro, nei 4 livelli di zoom previsti</t>
-  </si>
-  <si>
-    <t>Masturzo Vincenzo Pietro Pio</t>
-  </si>
-  <si>
-    <t>Aggiungere alla barra degli strumenti un toggle button che quando selezionato permetta di attivare la visualizzazione di una griglia</t>
+Successivamente implementare i comandi: InsertCommand  e DragCommand</t>
   </si>
 </sst>
 </file>
@@ -1891,10 +1891,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{C04064D0-0483-4F2B-8D80-6D3C94DE3902}" name="Tabella1" displayName="Tabella1" ref="A1:E5" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
   <autoFilter ref="A1:E5" xr:uid="{C04064D0-0483-4F2B-8D80-6D3C94DE3902}"/>
@@ -3116,7 +3112,7 @@
   <dimension ref="A1:E26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="37" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3158,11 +3154,11 @@
     </row>
     <row r="3" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="8" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="D3" s="9" t="s">
         <v>18</v>
@@ -3173,11 +3169,11 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
-        <v>102</v>
+        <v>138</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="8" t="s">
-        <v>103</v>
+        <v>139</v>
       </c>
       <c r="D4" s="9" t="s">
         <v>85</v>
@@ -3188,11 +3184,11 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="12" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D5" s="9" t="s">
         <v>18</v>
@@ -3203,11 +3199,11 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B6" s="3"/>
       <c r="C6" s="8" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D6" s="9" t="s">
         <v>85</v>
@@ -3218,11 +3214,11 @@
     </row>
     <row r="7" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B7" s="3"/>
       <c r="C7" s="8" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D7" s="9" t="s">
         <v>18</v>
@@ -3233,7 +3229,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B8" s="10">
         <v>3</v>
@@ -3244,11 +3240,11 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="11" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B9" s="3"/>
       <c r="C9" s="12" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D9" s="9" t="s">
         <v>85</v>
@@ -3259,11 +3255,11 @@
     </row>
     <row r="10" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" s="11" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B10" s="3"/>
       <c r="C10" s="12" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D10" s="9" t="s">
         <v>18</v>
@@ -3274,7 +3270,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B11" s="10">
         <v>3</v>
@@ -3285,11 +3281,11 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="11" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B12" s="3"/>
       <c r="C12" s="12" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D12" s="9" t="s">
         <v>85</v>
@@ -3300,11 +3296,11 @@
     </row>
     <row r="13" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A13" s="11" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B13" s="3"/>
       <c r="C13" s="12" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D13" s="9" t="s">
         <v>18</v>
@@ -3315,7 +3311,7 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B14" s="10">
         <v>5</v>
@@ -3326,14 +3322,14 @@
     </row>
     <row r="15" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A15" s="11" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B15" s="3"/>
       <c r="C15" s="12" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="E15" s="9" t="s">
         <v>101</v>
@@ -3341,7 +3337,7 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B16" s="10">
         <v>3</v>
@@ -3352,14 +3348,14 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="13" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B17" s="3"/>
       <c r="C17" s="12" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="E17" s="9" t="s">
         <v>101</v>
@@ -3367,7 +3363,7 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B18" s="10">
         <v>2</v>
@@ -3378,14 +3374,14 @@
     </row>
     <row r="19" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="13" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B19" s="3"/>
       <c r="C19" s="12" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="E19" s="9" t="s">
         <v>101</v>
@@ -3393,7 +3389,7 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="26" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B20" s="28">
         <v>2</v>
@@ -3404,14 +3400,14 @@
     </row>
     <row r="21" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="20" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B21" s="25"/>
       <c r="C21" s="18" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="E21" s="19" t="s">
         <v>101</v>
@@ -3419,7 +3415,7 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B22" s="10">
         <v>3</v>
@@ -3430,14 +3426,14 @@
     </row>
     <row r="23" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A23" s="13" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B23" s="3"/>
       <c r="C23" s="12" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="E23" s="19" t="s">
         <v>101</v>
@@ -3454,14 +3450,14 @@
     </row>
     <row r="25" spans="1:5" ht="58.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="13" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B25" s="3"/>
       <c r="C25" s="12" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="E25" s="19" t="s">
         <v>101</v>
@@ -3479,15 +3475,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101006D06A881EF84BF4D9C2E0A241D74C9AB" ma:contentTypeVersion="5" ma:contentTypeDescription="Creare un nuovo documento." ma:contentTypeScope="" ma:versionID="6ad53b5fb9ed4d9ca0953b41cd1c771f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="cad3c75a-58d7-40e3-abd0-865ba3ea7957" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="cacddd16a8291ce2bddd10790055ff38" ns3:_="">
     <xsd:import namespace="cad3c75a-58d7-40e3-abd0-865ba3ea7957"/>
@@ -3637,6 +3624,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -3646,14 +3642,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CC5A00A-4000-42AF-9964-66AE6D943A28}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A080C301-2896-455C-B03E-90A728C8991F}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3667,6 +3655,14 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CC5A00A-4000-42AF-9964-66AE6D943A28}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/docs/Burndown chart.xlsx
+++ b/docs/Burndown chart.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martina\IdeaProjects\Progetto-SAD\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\feder\Desktop\Progetti Java\Progetto_SAD\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9216EBA-1568-4C95-942B-7F6FBCFB1D8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F354891-A8FF-4EE8-9634-E38C8ADF8F35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="3" xr2:uid="{EB4EC49D-06D4-4331-8995-0B2882866B42}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{EB4EC49D-06D4-4331-8995-0B2882866B42}"/>
   </bookViews>
   <sheets>
     <sheet name="Burndown Chart" sheetId="1" r:id="rId1"/>
@@ -456,17 +456,18 @@
     <t>Aggiungere alla barra degli strumenti un toggle button che quando selezionato permetta di attivare la visualizzazione di una griglia</t>
   </si>
   <si>
-    <t>TSK30: Implementazione comandi inserimento e trascinamento</t>
-  </si>
-  <si>
-    <t>TSK31: Implementazione comandi eliminazione, ridimensiona, cambio colore</t>
-  </si>
-  <si>
-    <t>Implementare i comandi: DeleteCommand, ResizeCommand, ChangeColorCommand</t>
-  </si>
-  <si>
-    <t>Creare l’interfaccia Command.
-Successivamente implementare i comandi: InsertCommand  e DragCommand</t>
+    <t>TSK30: Implementazione comandi inserimento, eliminazione e trascinamento</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Creare l’interfaccia Command.
+Successivamente implementare i comandi: InsertCommand, DeleteCommand  e DragCommand
+</t>
+  </si>
+  <si>
+    <t>TSK31: Implementazione comandi ridimensiona, cambio colore bordi e cambio colore riempimento</t>
+  </si>
+  <si>
+    <t>Implementare i comandi: ResizeCommand, ChangeStrokeColorCommand e ChangeFillColorCommand</t>
   </si>
 </sst>
 </file>
@@ -3112,12 +3113,12 @@
   <dimension ref="A1:E26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="37" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="78.33203125" customWidth="1"/>
+    <col min="1" max="1" width="84.5546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16" customWidth="1"/>
     <col min="3" max="3" width="87.21875" customWidth="1"/>
     <col min="4" max="4" width="33.33203125" customWidth="1"/>
@@ -3152,13 +3153,13 @@
       <c r="D2" s="6"/>
       <c r="E2" s="6"/>
     </row>
-    <row r="3" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>137</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="8" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D3" s="9" t="s">
         <v>18</v>
@@ -3169,11 +3170,11 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="8" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D4" s="9" t="s">
         <v>85</v>
@@ -3475,6 +3476,23 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="cad3c75a-58d7-40e3-abd0-865ba3ea7957" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101006D06A881EF84BF4D9C2E0A241D74C9AB" ma:contentTypeVersion="5" ma:contentTypeDescription="Creare un nuovo documento." ma:contentTypeScope="" ma:versionID="6ad53b5fb9ed4d9ca0953b41cd1c771f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="cad3c75a-58d7-40e3-abd0-865ba3ea7957" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="cacddd16a8291ce2bddd10790055ff38" ns3:_="">
     <xsd:import namespace="cad3c75a-58d7-40e3-abd0-865ba3ea7957"/>
@@ -3624,24 +3642,31 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{717C791E-FCB3-40AD-88FF-A49361D61F2C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="cad3c75a-58d7-40e3-abd0-865ba3ea7957"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="cad3c75a-58d7-40e3-abd0-865ba3ea7957" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CC5A00A-4000-42AF-9964-66AE6D943A28}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A080C301-2896-455C-B03E-90A728C8991F}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3657,28 +3682,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CC5A00A-4000-42AF-9964-66AE6D943A28}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{717C791E-FCB3-40AD-88FF-A49361D61F2C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="cad3c75a-58d7-40e3-abd0-865ba3ea7957"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/docs/Burndown chart.xlsx
+++ b/docs/Burndown chart.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\feder\Desktop\Progetti Java\Progetto_SAD\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vince\IdeaProjects\Progetto-SAD\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F354891-A8FF-4EE8-9634-E38C8ADF8F35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{540D5E28-60A3-4C9D-80D5-8830345F72BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{EB4EC49D-06D4-4331-8995-0B2882866B42}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="3" xr2:uid="{EB4EC49D-06D4-4331-8995-0B2882866B42}"/>
   </bookViews>
   <sheets>
     <sheet name="Burndown Chart" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="140">
   <si>
     <t>Sprint</t>
   </si>
@@ -345,9 +345,6 @@
   </si>
   <si>
     <t>US #17</t>
-  </si>
-  <si>
-    <t>Non Iniziata</t>
   </si>
   <si>
     <t>Effettuare il refactoring del controller affinchè utilizzi la logica dei Command</t>
@@ -474,7 +471,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -507,6 +504,14 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -550,7 +555,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -631,6 +636,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -2778,7 +2784,7 @@
   <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView zoomScale="55" zoomScaleNormal="55" zoomScaleSheetLayoutView="37" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3110,10 +3116,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D2B26B3-2611-4BA2-A2BF-A1C920DED04D}">
-  <dimension ref="A1:E26"/>
+  <dimension ref="A1:E29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="37" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3155,82 +3161,82 @@
     </row>
     <row r="3" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D3" s="9" t="s">
         <v>18</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>101</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="8" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D4" s="9" t="s">
         <v>85</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>101</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="12" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D5" s="9" t="s">
         <v>18</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>101</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B6" s="3"/>
       <c r="C6" s="8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D6" s="9" t="s">
         <v>85</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>101</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B7" s="3"/>
       <c r="C7" s="8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D7" s="9" t="s">
         <v>18</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>101</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B8" s="10">
         <v>3</v>
@@ -3241,37 +3247,37 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="11" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B9" s="3"/>
       <c r="C9" s="12" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D9" s="9" t="s">
         <v>85</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>101</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B10" s="3"/>
       <c r="C10" s="12" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D10" s="9" t="s">
         <v>18</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>101</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B11" s="10">
         <v>3</v>
@@ -3282,37 +3288,37 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="11" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B12" s="3"/>
       <c r="C12" s="12" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D12" s="9" t="s">
         <v>85</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>101</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A13" s="11" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B13" s="3"/>
       <c r="C13" s="12" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D13" s="9" t="s">
         <v>18</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>101</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B14" s="10">
         <v>5</v>
@@ -3323,22 +3329,22 @@
     </row>
     <row r="15" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A15" s="11" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B15" s="3"/>
       <c r="C15" s="12" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>101</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B16" s="10">
         <v>3</v>
@@ -3349,22 +3355,22 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="13" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B17" s="3"/>
       <c r="C17" s="12" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>101</v>
+        <v>19</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B18" s="10">
         <v>2</v>
@@ -3375,22 +3381,22 @@
     </row>
     <row r="19" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="13" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B19" s="3"/>
       <c r="C19" s="12" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>101</v>
+        <v>19</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="26" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B20" s="28">
         <v>2</v>
@@ -3401,22 +3407,22 @@
     </row>
     <row r="21" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="20" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B21" s="25"/>
       <c r="C21" s="18" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E21" s="19" t="s">
-        <v>101</v>
+        <v>19</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B22" s="10">
         <v>3</v>
@@ -3427,17 +3433,17 @@
     </row>
     <row r="23" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A23" s="13" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B23" s="3"/>
       <c r="C23" s="12" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E23" s="19" t="s">
-        <v>101</v>
+        <v>19</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -3451,20 +3457,23 @@
     </row>
     <row r="25" spans="1:5" ht="58.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="13" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B25" s="3"/>
       <c r="C25" s="12" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>135</v>
+        <v>18</v>
       </c>
       <c r="E25" s="19" t="s">
-        <v>101</v>
+        <v>19</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D29" s="30"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3476,23 +3485,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="cad3c75a-58d7-40e3-abd0-865ba3ea7957" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101006D06A881EF84BF4D9C2E0A241D74C9AB" ma:contentTypeVersion="5" ma:contentTypeDescription="Creare un nuovo documento." ma:contentTypeScope="" ma:versionID="6ad53b5fb9ed4d9ca0953b41cd1c771f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="cad3c75a-58d7-40e3-abd0-865ba3ea7957" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="cacddd16a8291ce2bddd10790055ff38" ns3:_="">
     <xsd:import namespace="cad3c75a-58d7-40e3-abd0-865ba3ea7957"/>
@@ -3642,31 +3634,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{717C791E-FCB3-40AD-88FF-A49361D61F2C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="cad3c75a-58d7-40e3-abd0-865ba3ea7957"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CC5A00A-4000-42AF-9964-66AE6D943A28}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="cad3c75a-58d7-40e3-abd0-865ba3ea7957" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A080C301-2896-455C-B03E-90A728C8991F}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3682,4 +3667,28 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CC5A00A-4000-42AF-9964-66AE6D943A28}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{717C791E-FCB3-40AD-88FF-A49361D61F2C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="cad3c75a-58d7-40e3-abd0-865ba3ea7957"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/docs/Burndown chart.xlsx
+++ b/docs/Burndown chart.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\feder\Desktop\Progetti Java\Progetto_SAD\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\attil\PycharmProjects\Progetto-SAD\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F354891-A8FF-4EE8-9634-E38C8ADF8F35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2041CA37-2B8D-473B-BCA5-BFF34A0CCB24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{EB4EC49D-06D4-4331-8995-0B2882866B42}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{EB4EC49D-06D4-4331-8995-0B2882866B42}"/>
   </bookViews>
   <sheets>
     <sheet name="Burndown Chart" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="140">
   <si>
     <t>Sprint</t>
   </si>
@@ -345,9 +345,6 @@
   </si>
   <si>
     <t>US #17</t>
-  </si>
-  <si>
-    <t>Non Iniziata</t>
   </si>
   <si>
     <t>Effettuare il refactoring del controller affinchè utilizzi la logica dei Command</t>
@@ -474,7 +471,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -507,6 +504,14 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -550,7 +555,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -631,6 +636,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -871,7 +877,7 @@
                   <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1034,7 +1040,7 @@
                   <c:v>94</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>94</c:v>
+                  <c:v>68</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2269,19 +2275,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9E092E5-C70C-4A02-95A3-9D8F5F48E490}">
   <dimension ref="A1:J6"/>
   <sheetViews>
-    <sheetView zoomScale="98" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="98" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="24.33203125" customWidth="1"/>
-    <col min="3" max="3" width="21.33203125" customWidth="1"/>
-    <col min="4" max="4" width="17.33203125" customWidth="1"/>
-    <col min="5" max="5" width="18.6640625" customWidth="1"/>
+    <col min="2" max="2" width="24.36328125" customWidth="1"/>
+    <col min="3" max="3" width="21.36328125" customWidth="1"/>
+    <col min="4" max="4" width="17.36328125" customWidth="1"/>
+    <col min="5" max="5" width="18.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2298,7 +2304,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" s="16" t="s">
         <v>5</v>
       </c>
@@ -2324,7 +2330,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" s="16" t="s">
         <v>7</v>
       </c>
@@ -2343,7 +2349,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" s="16" t="s">
         <v>8</v>
       </c>
@@ -2362,7 +2368,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" s="16" t="s">
         <v>9</v>
       </c>
@@ -2370,7 +2376,7 @@
         <v>26</v>
       </c>
       <c r="C5" s="2">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="D5" s="2">
         <f t="shared" si="1"/>
@@ -2378,10 +2384,10 @@
       </c>
       <c r="E5" s="2">
         <f t="shared" si="2"/>
-        <v>94</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -2402,20 +2408,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F59B876-E793-45F0-95C7-4E253C5C7DF4}">
   <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView zoomScale="68" zoomScaleNormal="68" zoomScaleSheetLayoutView="37" workbookViewId="0">
+    <sheetView topLeftCell="A19" zoomScale="68" zoomScaleNormal="68" zoomScaleSheetLayoutView="37" workbookViewId="0">
       <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="34.44140625" customWidth="1"/>
+    <col min="1" max="1" width="34.453125" customWidth="1"/>
     <col min="2" max="2" width="16" customWidth="1"/>
-    <col min="3" max="3" width="43.33203125" customWidth="1"/>
-    <col min="4" max="4" width="25.6640625" customWidth="1"/>
-    <col min="5" max="5" width="41.33203125" customWidth="1"/>
+    <col min="3" max="3" width="43.36328125" customWidth="1"/>
+    <col min="4" max="4" width="25.6328125" customWidth="1"/>
+    <col min="5" max="5" width="41.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>10</v>
       </c>
@@ -2432,7 +2438,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
         <v>15</v>
       </c>
@@ -2443,7 +2449,7 @@
       <c r="D2" s="6"/>
       <c r="E2" s="6"/>
     </row>
-    <row r="3" spans="1:5" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="91.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="7" t="s">
         <v>16</v>
       </c>
@@ -2458,7 +2464,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
         <v>20</v>
       </c>
@@ -2469,7 +2475,7 @@
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
     </row>
-    <row r="5" spans="1:5" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" ht="42" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="11" t="s">
         <v>21</v>
       </c>
@@ -2484,7 +2490,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="11" t="s">
         <v>23</v>
       </c>
@@ -2499,7 +2505,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="30.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" ht="30.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="11" t="s">
         <v>26</v>
       </c>
@@ -2514,7 +2520,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="43.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" ht="44" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="13" t="s">
         <v>29</v>
       </c>
@@ -2529,7 +2535,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="4" t="s">
         <v>32</v>
       </c>
@@ -2540,7 +2546,7 @@
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
     </row>
-    <row r="10" spans="1:5" ht="58.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" ht="58.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="11" t="s">
         <v>33</v>
       </c>
@@ -2555,7 +2561,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="4" t="s">
         <v>35</v>
       </c>
@@ -2566,7 +2572,7 @@
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
     </row>
-    <row r="12" spans="1:5" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="11" t="s">
         <v>36</v>
       </c>
@@ -2581,7 +2587,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="58.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" ht="59" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="11" t="s">
         <v>38</v>
       </c>
@@ -2596,7 +2602,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="11" t="s">
         <v>40</v>
       </c>
@@ -2611,7 +2617,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" s="4" t="s">
         <v>42</v>
       </c>
@@ -2622,7 +2628,7 @@
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
     </row>
-    <row r="16" spans="1:5" ht="45.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" ht="45.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="13" t="s">
         <v>43</v>
       </c>
@@ -2637,7 +2643,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="73.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" ht="73.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="13" t="s">
         <v>45</v>
       </c>
@@ -2652,7 +2658,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" ht="46.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="13" t="s">
         <v>47</v>
       </c>
@@ -2667,7 +2673,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" s="4" t="s">
         <v>49</v>
       </c>
@@ -2678,7 +2684,7 @@
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
     </row>
-    <row r="20" spans="1:5" ht="30.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" ht="30.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="13" t="s">
         <v>50</v>
       </c>
@@ -2693,7 +2699,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="31.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" ht="32" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="13" t="s">
         <v>52</v>
       </c>
@@ -2708,7 +2714,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="58.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" ht="59" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="13" t="s">
         <v>54</v>
       </c>
@@ -2723,7 +2729,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" s="4" t="s">
         <v>56</v>
       </c>
@@ -2734,7 +2740,7 @@
       <c r="D23" s="4"/>
       <c r="E23" s="4"/>
     </row>
-    <row r="24" spans="1:5" ht="32.700000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" ht="32.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="13" t="s">
         <v>57</v>
       </c>
@@ -2749,7 +2755,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="59.7" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" ht="59.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="13" t="s">
         <v>59</v>
       </c>
@@ -2777,20 +2783,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{707AD77F-AD1F-4B96-8DA9-A040FF438B35}">
   <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" zoomScaleSheetLayoutView="37" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView topLeftCell="A12" zoomScale="55" zoomScaleNormal="55" zoomScaleSheetLayoutView="37" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="50.44140625" customWidth="1"/>
+    <col min="1" max="1" width="50.453125" customWidth="1"/>
     <col min="2" max="2" width="16" customWidth="1"/>
-    <col min="3" max="3" width="77.5546875" customWidth="1"/>
-    <col min="4" max="4" width="33.33203125" customWidth="1"/>
-    <col min="5" max="5" width="37.44140625" customWidth="1"/>
+    <col min="3" max="3" width="77.54296875" customWidth="1"/>
+    <col min="4" max="4" width="33.36328125" customWidth="1"/>
+    <col min="5" max="5" width="37.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>10</v>
       </c>
@@ -2807,7 +2813,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
         <v>61</v>
       </c>
@@ -2818,7 +2824,7 @@
       <c r="D2" s="6"/>
       <c r="E2" s="6"/>
     </row>
-    <row r="3" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="7" t="s">
         <v>62</v>
       </c>
@@ -2833,7 +2839,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
         <v>65</v>
       </c>
@@ -2844,7 +2850,7 @@
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
     </row>
-    <row r="5" spans="1:5" ht="48.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" ht="48.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="11" t="s">
         <v>66</v>
       </c>
@@ -2859,7 +2865,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="11" t="s">
         <v>69</v>
       </c>
@@ -2874,7 +2880,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="4" t="s">
         <v>72</v>
       </c>
@@ -2885,7 +2891,7 @@
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
     </row>
-    <row r="8" spans="1:5" ht="29.7" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" ht="29.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="11" t="s">
         <v>73</v>
       </c>
@@ -2900,7 +2906,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="4" t="s">
         <v>76</v>
       </c>
@@ -2911,7 +2917,7 @@
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
     </row>
-    <row r="10" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="11" t="s">
         <v>77</v>
       </c>
@@ -2926,7 +2932,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="4" t="s">
         <v>79</v>
       </c>
@@ -2937,7 +2943,7 @@
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
     </row>
-    <row r="12" spans="1:5" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="13" t="s">
         <v>80</v>
       </c>
@@ -2952,7 +2958,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="4" t="s">
         <v>82</v>
       </c>
@@ -2963,7 +2969,7 @@
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
     </row>
-    <row r="14" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A14" s="13" t="s">
         <v>83</v>
       </c>
@@ -2978,7 +2984,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" s="26" t="s">
         <v>86</v>
       </c>
@@ -2987,7 +2993,7 @@
       <c r="D15" s="24"/>
       <c r="E15" s="24"/>
     </row>
-    <row r="16" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A16" s="20" t="s">
         <v>87</v>
       </c>
@@ -3002,7 +3008,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" s="4" t="s">
         <v>89</v>
       </c>
@@ -3013,7 +3019,7 @@
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
     </row>
-    <row r="18" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" ht="58" x14ac:dyDescent="0.35">
       <c r="A18" s="20" t="s">
         <v>90</v>
       </c>
@@ -3028,7 +3034,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" ht="31.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="13" t="s">
         <v>92</v>
       </c>
@@ -3043,7 +3049,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="4" t="s">
         <v>94</v>
       </c>
@@ -3054,7 +3060,7 @@
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>
     </row>
-    <row r="21" spans="1:5" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" ht="46.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="13" t="s">
         <v>95</v>
       </c>
@@ -3069,7 +3075,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" s="4" t="s">
         <v>97</v>
       </c>
@@ -3080,12 +3086,12 @@
       <c r="D22" s="4"/>
       <c r="E22" s="4"/>
     </row>
-    <row r="23" spans="1:5" ht="70.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" ht="70.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="13" t="s">
         <v>98</v>
       </c>
       <c r="B23" s="3"/>
-      <c r="C23" s="12" t="s">
+      <c r="C23" s="2" t="s">
         <v>99</v>
       </c>
       <c r="D23" s="9" t="s">
@@ -3095,10 +3101,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="31.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="25" spans="1:5" ht="58.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="27" spans="1:5" ht="32.700000000000003" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="28" spans="1:5" ht="59.7" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="24" spans="1:5" ht="32" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="25" spans="1:5" ht="59" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C25" s="30"/>
+    </row>
+    <row r="27" spans="1:5" ht="32.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="28" spans="1:5" ht="59.75" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3110,22 +3118,22 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D2B26B3-2611-4BA2-A2BF-A1C920DED04D}">
-  <dimension ref="A1:E26"/>
+  <dimension ref="A1:H26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="37" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView topLeftCell="A3" zoomScale="55" zoomScaleNormal="70" zoomScaleSheetLayoutView="37" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="84.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="84.54296875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16" customWidth="1"/>
-    <col min="3" max="3" width="87.21875" customWidth="1"/>
-    <col min="4" max="4" width="33.33203125" customWidth="1"/>
-    <col min="5" max="5" width="37.44140625" customWidth="1"/>
+    <col min="3" max="3" width="87.1796875" customWidth="1"/>
+    <col min="4" max="4" width="33.36328125" customWidth="1"/>
+    <col min="5" max="5" width="37.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>10</v>
       </c>
@@ -3142,7 +3150,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
         <v>100</v>
       </c>
@@ -3153,84 +3161,84 @@
       <c r="D2" s="6"/>
       <c r="E2" s="6"/>
     </row>
-    <row r="3" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A3" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D3" s="9" t="s">
         <v>18</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" s="7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="8" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D4" s="9" t="s">
         <v>85</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="12" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D5" s="9" t="s">
         <v>18</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" s="7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B6" s="3"/>
       <c r="C6" s="8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D6" s="9" t="s">
         <v>85</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A7" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B7" s="3"/>
       <c r="C7" s="8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D7" s="9" t="s">
         <v>18</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B8" s="10">
         <v>3</v>
@@ -3239,39 +3247,39 @@
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" s="11" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B9" s="3"/>
       <c r="C9" s="12" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D9" s="9" t="s">
         <v>85</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A10" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B10" s="3"/>
       <c r="C10" s="12" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D10" s="9" t="s">
         <v>18</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B11" s="10">
         <v>3</v>
@@ -3280,39 +3288,39 @@
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" s="11" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B12" s="3"/>
       <c r="C12" s="12" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D12" s="9" t="s">
         <v>85</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A13" s="11" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B13" s="3"/>
       <c r="C13" s="12" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D13" s="9" t="s">
         <v>18</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B14" s="10">
         <v>5</v>
@@ -3321,24 +3329,24 @@
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
     </row>
-    <row r="15" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A15" s="11" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B15" s="3"/>
       <c r="C15" s="12" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B16" s="10">
         <v>3</v>
@@ -3346,25 +3354,26 @@
       <c r="C16" s="29"/>
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="H16" s="30"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" s="13" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B17" s="3"/>
       <c r="C17" s="12" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B18" s="10">
         <v>2</v>
@@ -3373,24 +3382,24 @@
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
     </row>
-    <row r="19" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="13" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B19" s="3"/>
       <c r="C19" s="12" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" s="26" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B20" s="28">
         <v>2</v>
@@ -3399,24 +3408,24 @@
       <c r="D20" s="24"/>
       <c r="E20" s="24"/>
     </row>
-    <row r="21" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="20" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B21" s="25"/>
       <c r="C21" s="18" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>135</v>
-      </c>
-      <c r="E21" s="19" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+        <v>134</v>
+      </c>
+      <c r="E21" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B22" s="10">
         <v>3</v>
@@ -3425,22 +3434,22 @@
       <c r="D22" s="4"/>
       <c r="E22" s="4"/>
     </row>
-    <row r="23" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A23" s="13" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B23" s="3"/>
       <c r="C23" s="12" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>133</v>
-      </c>
-      <c r="E23" s="19" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+        <v>132</v>
+      </c>
+      <c r="E23" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="19.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="4" t="s">
         <v>86</v>
       </c>
@@ -3449,22 +3458,22 @@
       <c r="D24" s="4"/>
       <c r="E24" s="4"/>
     </row>
-    <row r="25" spans="1:5" ht="58.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" ht="58.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="13" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B25" s="3"/>
       <c r="C25" s="12" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>135</v>
-      </c>
-      <c r="E25" s="19" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+        <v>18</v>
+      </c>
+      <c r="E25" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3484,15 +3493,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101006D06A881EF84BF4D9C2E0A241D74C9AB" ma:contentTypeVersion="5" ma:contentTypeDescription="Creare un nuovo documento." ma:contentTypeScope="" ma:versionID="6ad53b5fb9ed4d9ca0953b41cd1c771f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="cad3c75a-58d7-40e3-abd0-865ba3ea7957" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="cacddd16a8291ce2bddd10790055ff38" ns3:_="">
     <xsd:import namespace="cad3c75a-58d7-40e3-abd0-865ba3ea7957"/>
@@ -3642,6 +3642,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{717C791E-FCB3-40AD-88FF-A49361D61F2C}">
   <ds:schemaRefs>
@@ -3659,14 +3668,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CC5A00A-4000-42AF-9964-66AE6D943A28}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A080C301-2896-455C-B03E-90A728C8991F}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3682,4 +3683,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CC5A00A-4000-42AF-9964-66AE6D943A28}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/docs/Burndown chart.xlsx
+++ b/docs/Burndown chart.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\attil\PycharmProjects\Progetto-SAD\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2041CA37-2B8D-473B-BCA5-BFF34A0CCB24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E0614EF-BFD3-43DF-953D-A691F05C8A56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{EB4EC49D-06D4-4331-8995-0B2882866B42}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="3" xr2:uid="{EB4EC49D-06D4-4331-8995-0B2882866B42}"/>
   </bookViews>
   <sheets>
     <sheet name="Burndown Chart" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="141">
   <si>
     <t>Sprint</t>
   </si>
@@ -384,9 +384,6 @@
   </si>
   <si>
     <t>Aggiungere al menu contestuale delle forme la voce "Porta dietro", che, quando selezionata permetta di fornire la priorità visiva minima alla forma selezionata</t>
-  </si>
-  <si>
-    <t>Gestire l’operazione del panning dello spazio di lavoro e la sua conseguente espansione</t>
   </si>
   <si>
     <t>Implementare la disattivazione della griglia quando il toggle button della barra degli strumenti viene deselezionato</t>
@@ -465,6 +462,12 @@
   </si>
   <si>
     <t>Implementare i comandi: ResizeCommand, ChangeStrokeColorCommand e ChangeFillColorCommand</t>
+  </si>
+  <si>
+    <t>Non completata</t>
+  </si>
+  <si>
+    <t>Gestire il panning dello spazio di lavoro e l'espansione automatica quando una forma viene trascinata oltre i bordi visibili.</t>
   </si>
 </sst>
 </file>
@@ -877,7 +880,7 @@
                   <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>26</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1040,7 +1043,7 @@
                   <c:v>94</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>68</c:v>
+                  <c:v>71</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2275,8 +2278,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9E092E5-C70C-4A02-95A3-9D8F5F48E490}">
   <dimension ref="A1:J6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="98" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView zoomScale="98" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2376,7 +2379,7 @@
         <v>26</v>
       </c>
       <c r="C5" s="2">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D5" s="2">
         <f t="shared" si="1"/>
@@ -2384,7 +2387,7 @@
       </c>
       <c r="E5" s="2">
         <f t="shared" si="2"/>
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.35">
@@ -3120,8 +3123,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D2B26B3-2611-4BA2-A2BF-A1C920DED04D}">
   <dimension ref="A1:H26"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="55" zoomScaleNormal="70" zoomScaleSheetLayoutView="37" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="55" zoomScaleNormal="70" zoomScaleSheetLayoutView="37" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3163,11 +3166,11 @@
     </row>
     <row r="3" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A3" s="7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="8" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D3" s="9" t="s">
         <v>18</v>
@@ -3178,11 +3181,11 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" s="7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="8" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D4" s="9" t="s">
         <v>85</v>
@@ -3193,11 +3196,11 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="12" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D5" s="9" t="s">
         <v>18</v>
@@ -3208,7 +3211,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B6" s="3"/>
       <c r="C6" s="8" t="s">
@@ -3223,7 +3226,7 @@
     </row>
     <row r="7" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A7" s="7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B7" s="3"/>
       <c r="C7" s="8" t="s">
@@ -3249,7 +3252,7 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" s="11" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B9" s="3"/>
       <c r="C9" s="12" t="s">
@@ -3264,7 +3267,7 @@
     </row>
     <row r="10" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A10" s="11" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B10" s="3"/>
       <c r="C10" s="12" t="s">
@@ -3290,7 +3293,7 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B12" s="3"/>
       <c r="C12" s="12" t="s">
@@ -3305,7 +3308,7 @@
     </row>
     <row r="13" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A13" s="11" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B13" s="3"/>
       <c r="C13" s="12" t="s">
@@ -3331,14 +3334,14 @@
     </row>
     <row r="15" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A15" s="11" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B15" s="3"/>
       <c r="C15" s="12" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E15" s="9" t="s">
         <v>19</v>
@@ -3356,19 +3359,19 @@
       <c r="E16" s="4"/>
       <c r="H16" s="30"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A17" s="13" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B17" s="3"/>
       <c r="C17" s="12" t="s">
-        <v>114</v>
+        <v>140</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>19</v>
+        <v>139</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.35">
@@ -3384,14 +3387,14 @@
     </row>
     <row r="19" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="13" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B19" s="3"/>
       <c r="C19" s="12" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E19" s="9" t="s">
         <v>19</v>
@@ -3410,14 +3413,14 @@
     </row>
     <row r="21" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="20" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B21" s="25"/>
       <c r="C21" s="18" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E21" s="9" t="s">
         <v>19</v>
@@ -3436,14 +3439,14 @@
     </row>
     <row r="23" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A23" s="13" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B23" s="3"/>
       <c r="C23" s="12" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E23" s="9" t="s">
         <v>19</v>
@@ -3460,11 +3463,11 @@
     </row>
     <row r="25" spans="1:5" ht="58.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="13" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B25" s="3"/>
       <c r="C25" s="12" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D25" s="9" t="s">
         <v>18</v>
